--- a/nodes_source_analyses/industry/industry_other_food_heater_electricity.converter.xlsx
+++ b/nodes_source_analyses/industry/industry_other_food_heater_electricity.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/industry/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,8 +42,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -182,9 +190,6 @@
   </si>
   <si>
     <t>Technical</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Comments</t>
@@ -575,6 +580,10 @@
   <si>
     <t>of the food industry</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -585,7 +594,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -801,11 +810,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1423,7 +1427,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1725,20 +1729,20 @@
     <xf numFmtId="49" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1758,13 +1762,13 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1823,16 +1827,16 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="22" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="22" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1846,9 +1850,9 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1870,7 +1874,7 @@
     <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1882,31 +1886,31 @@
     <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2406,77 +2410,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>139700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2690,7 +2624,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2803,7 +2737,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Title"/>
@@ -3192,50 +3126,50 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="22"/>
+    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1">
+    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -3244,29 +3178,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="74" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="75"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="76"/>
       <c r="C10" s="77"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="76" t="s">
         <v>27</v>
@@ -3275,33 +3209,33 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="76"/>
       <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="76"/>
       <c r="C13" s="79" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="76"/>
       <c r="C14" s="77" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="76"/>
       <c r="C15" s="77"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="76" t="s">
         <v>32</v>
@@ -3310,49 +3244,49 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="76"/>
       <c r="C17" s="81" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="76"/>
       <c r="C18" s="82" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="76"/>
       <c r="C19" s="83" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="84"/>
       <c r="C20" s="85" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="84"/>
       <c r="C21" s="86" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="84"/>
       <c r="C22" s="87" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="84"/>
       <c r="C23" s="88" t="s">
         <v>40</v>
@@ -3361,44 +3295,41 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="51.5" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="37.875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="35"/>
+    <col min="1" max="1" width="3.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D1" s="36"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="176" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="C2" s="177"/>
       <c r="D2" s="177"/>
@@ -3406,7 +3337,7 @@
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="179"/>
       <c r="C3" s="180"/>
       <c r="D3" s="180"/>
@@ -3414,7 +3345,7 @@
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="179"/>
       <c r="C4" s="180"/>
       <c r="D4" s="180"/>
@@ -3422,7 +3353,7 @@
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="182"/>
       <c r="C5" s="183"/>
       <c r="D5" s="183"/>
@@ -3430,17 +3361,17 @@
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
     </row>
-    <row r="7" spans="1:11" ht="16" thickBot="1">
+    <row r="7" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D7" s="36"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="37"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -3451,7 +3382,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="1:11" s="26" customFormat="1">
+    <row r="9" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24"/>
       <c r="C9" s="16" t="s">
         <v>19</v>
@@ -3472,7 +3403,7 @@
       </c>
       <c r="J9" s="91"/>
     </row>
-    <row r="10" spans="1:11" s="26" customFormat="1">
+    <row r="10" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="25"/>
       <c r="C10" s="13"/>
       <c r="D10" s="33"/>
@@ -3483,7 +3414,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:11" s="26" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="1:11" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="25"/>
       <c r="C11" s="13" t="s">
         <v>44</v>
@@ -3496,11 +3427,11 @@
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:11" ht="16" thickBot="1">
+    <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="25"/>
       <c r="C12" s="164" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="41">
@@ -3509,20 +3440,20 @@
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="164" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="165" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="26"/>
     </row>
-    <row r="13" spans="1:11" ht="16" thickBot="1">
+    <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="25"/>
       <c r="C13" s="175" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>2</v>
@@ -3533,23 +3464,23 @@
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="106" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="165" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="16" thickBot="1">
+    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="109"/>
       <c r="B14" s="110"/>
       <c r="C14" s="155" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="41">
         <f>'Research data'!H9</f>
@@ -3557,20 +3488,20 @@
       </c>
       <c r="F14" s="106"/>
       <c r="G14" s="155" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H14" s="106"/>
       <c r="I14" s="165" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J14" s="112"/>
       <c r="K14" s="36"/>
     </row>
-    <row r="15" spans="1:11" ht="16" thickBot="1">
+    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="109"/>
       <c r="B15" s="110"/>
       <c r="C15" s="139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="41">
@@ -3581,15 +3512,15 @@
       <c r="G15" s="106"/>
       <c r="H15" s="106"/>
       <c r="I15" s="174" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J15" s="112"/>
       <c r="K15" s="36"/>
     </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1">
+    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="110"/>
       <c r="C16" s="106" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>2</v>
@@ -3602,14 +3533,14 @@
       <c r="G16" s="106"/>
       <c r="H16" s="106"/>
       <c r="I16" s="174" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J16" s="112"/>
     </row>
-    <row r="17" spans="1:10" ht="16" thickBot="1">
+    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="110"/>
       <c r="C17" s="106" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>2</v>
@@ -3621,11 +3552,11 @@
       <c r="G17" s="106"/>
       <c r="H17" s="106"/>
       <c r="I17" s="174" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J17" s="112"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" s="40"/>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
@@ -3636,7 +3567,7 @@
       <c r="I18" s="36"/>
       <c r="J18" s="92"/>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1">
+    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="40"/>
       <c r="C19" s="13" t="s">
         <v>43</v>
@@ -3649,7 +3580,7 @@
       <c r="I19" s="36"/>
       <c r="J19" s="92"/>
     </row>
-    <row r="20" spans="1:10" ht="16" thickBot="1">
+    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="40"/>
       <c r="C20" s="39" t="s">
         <v>22</v>
@@ -3667,17 +3598,17 @@
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="166" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J20" s="92"/>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" thickBot="1">
+    <row r="21" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="40"/>
       <c r="C21" s="39" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="41">
         <f>'Research data'!H19</f>
@@ -3685,21 +3616,21 @@
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="142" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="166" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J21" s="92"/>
     </row>
-    <row r="22" spans="1:10" ht="16" thickBot="1">
+    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="134"/>
       <c r="C22" s="141" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22" s="136" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="41">
         <f>'Research data'!H22</f>
@@ -3707,18 +3638,18 @@
       </c>
       <c r="F22" s="137"/>
       <c r="G22" s="135" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H22" s="137"/>
       <c r="I22" s="166" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J22" s="138"/>
     </row>
-    <row r="23" spans="1:10" ht="16" thickBot="1">
+    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="134"/>
       <c r="C23" s="141" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D23" s="136"/>
       <c r="E23" s="41">
@@ -3727,18 +3658,18 @@
       </c>
       <c r="F23" s="137"/>
       <c r="G23" s="141" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H23" s="137"/>
       <c r="I23" s="150" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J23" s="138"/>
     </row>
-    <row r="24" spans="1:10" ht="16" thickBot="1">
+    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="134"/>
       <c r="C24" s="141" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" s="136"/>
       <c r="E24" s="41">
@@ -3747,18 +3678,18 @@
       </c>
       <c r="F24" s="137"/>
       <c r="G24" s="141" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H24" s="137"/>
       <c r="I24" s="173" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J24" s="138"/>
     </row>
-    <row r="25" spans="1:10" ht="16" thickBot="1">
+    <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="134"/>
       <c r="C25" s="151" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D25" s="136"/>
       <c r="E25" s="41">
@@ -3767,18 +3698,18 @@
       </c>
       <c r="F25" s="137"/>
       <c r="G25" s="141" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H25" s="137"/>
       <c r="I25" s="173" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J25" s="138"/>
     </row>
-    <row r="26" spans="1:10" ht="16" thickBot="1">
+    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="134"/>
       <c r="C26" s="141" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="136"/>
       <c r="E26" s="41">
@@ -3787,44 +3718,44 @@
       </c>
       <c r="F26" s="137"/>
       <c r="G26" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H26" s="137"/>
       <c r="I26" s="150" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J26" s="138"/>
     </row>
-    <row r="27" spans="1:10" ht="16" thickBot="1">
+    <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="109"/>
       <c r="B27" s="110"/>
       <c r="C27" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="23" t="s">
         <v>63</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>64</v>
       </c>
       <c r="E27" s="113">
         <v>0.1</v>
       </c>
       <c r="F27" s="106"/>
       <c r="G27" s="106" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H27" s="106"/>
       <c r="I27" s="174" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J27" s="112"/>
     </row>
-    <row r="28" spans="1:10" ht="16" thickBot="1">
+    <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="109"/>
       <c r="B28" s="110"/>
       <c r="C28" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="23" t="s">
         <v>66</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>67</v>
       </c>
       <c r="E28" s="113">
         <v>0</v>
@@ -3833,11 +3764,11 @@
       <c r="G28" s="106"/>
       <c r="H28" s="106"/>
       <c r="I28" s="174" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J28" s="112"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="109"/>
       <c r="B29" s="110"/>
       <c r="C29" s="106"/>
@@ -3849,7 +3780,7 @@
       <c r="I29" s="114"/>
       <c r="J29" s="112"/>
     </row>
-    <row r="30" spans="1:10" ht="16" thickBot="1">
+    <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="109"/>
       <c r="B30" s="110"/>
       <c r="C30" s="13" t="s">
@@ -3862,7 +3793,7 @@
       <c r="I30" s="114"/>
       <c r="J30" s="112"/>
     </row>
-    <row r="31" spans="1:10" ht="16" thickBot="1">
+    <row r="31" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="109"/>
       <c r="B31" s="110"/>
       <c r="C31" s="106" t="s">
@@ -3877,19 +3808,19 @@
       </c>
       <c r="F31" s="106"/>
       <c r="G31" s="106" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H31" s="106"/>
       <c r="I31" s="166" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J31" s="112"/>
     </row>
-    <row r="32" spans="1:10" ht="16" thickBot="1">
+    <row r="32" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="109"/>
       <c r="B32" s="110"/>
       <c r="C32" s="106" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>1</v>
@@ -3900,20 +3831,20 @@
       </c>
       <c r="F32" s="106"/>
       <c r="G32" s="106" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H32" s="106"/>
       <c r="I32" s="108"/>
       <c r="J32" s="112"/>
     </row>
-    <row r="33" spans="1:10" ht="16" thickBot="1">
+    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="109"/>
       <c r="B33" s="110"/>
       <c r="C33" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="23" t="s">
         <v>68</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>69</v>
       </c>
       <c r="E33" s="113">
         <f>'Research data'!H32</f>
@@ -3921,13 +3852,13 @@
       </c>
       <c r="F33" s="106"/>
       <c r="G33" s="106" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H33" s="106"/>
       <c r="I33" s="108"/>
       <c r="J33" s="112"/>
     </row>
-    <row r="34" spans="1:10" ht="16" thickBot="1">
+    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="109"/>
       <c r="B34" s="110"/>
       <c r="C34" s="106" t="s">
@@ -3943,11 +3874,11 @@
       <c r="G34" s="106"/>
       <c r="H34" s="106"/>
       <c r="I34" s="174" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J34" s="112"/>
     </row>
-    <row r="35" spans="1:10" ht="16" thickBot="1">
+    <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="109"/>
       <c r="B35" s="117"/>
       <c r="C35" s="118"/>
@@ -3959,7 +3890,7 @@
       <c r="I35" s="118"/>
       <c r="J35" s="119"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="109"/>
       <c r="B36" s="109"/>
       <c r="C36" s="109"/>
@@ -3971,7 +3902,7 @@
       <c r="I36" s="109"/>
       <c r="J36" s="109"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="109"/>
       <c r="B37" s="109"/>
       <c r="C37" s="109"/>
@@ -3983,7 +3914,7 @@
       <c r="I37" s="109"/>
       <c r="J37" s="109"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="109"/>
       <c r="B38" s="109"/>
       <c r="C38" s="109"/>
@@ -3995,7 +3926,7 @@
       <c r="I38" s="109"/>
       <c r="J38" s="109"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="109"/>
       <c r="B39" s="109"/>
       <c r="E39" s="109"/>
@@ -4005,7 +3936,7 @@
       <c r="I39" s="109"/>
       <c r="J39" s="109"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="109"/>
       <c r="B40" s="109"/>
       <c r="C40" s="109"/>
@@ -4017,7 +3948,7 @@
       <c r="I40" s="109"/>
       <c r="J40" s="109"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="109"/>
       <c r="B41" s="109"/>
       <c r="C41" s="109"/>
@@ -4029,7 +3960,7 @@
       <c r="I41" s="109"/>
       <c r="J41" s="109"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="109"/>
       <c r="B42" s="109"/>
       <c r="C42" s="109"/>
@@ -4041,7 +3972,7 @@
       <c r="I42" s="109"/>
       <c r="J42" s="109"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="109"/>
       <c r="B43" s="109"/>
       <c r="C43" s="109"/>
@@ -4053,10 +3984,10 @@
       <c r="I43" s="109"/>
       <c r="J43" s="109"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="109"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="109"/>
     </row>
   </sheetData>
@@ -4065,43 +3996,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>139700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4116,30 +4010,30 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="42" customWidth="1"/>
     <col min="2" max="2" width="3" style="42" customWidth="1"/>
-    <col min="3" max="3" width="34.375" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="42" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="42" customWidth="1"/>
     <col min="7" max="7" width="3" style="42" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="42" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="42" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="42" customWidth="1"/>
-    <col min="11" max="11" width="2.5" style="42" customWidth="1"/>
-    <col min="12" max="12" width="15.875" style="42" customWidth="1"/>
-    <col min="13" max="13" width="2.375" style="42" customWidth="1"/>
-    <col min="14" max="14" width="37.25" style="42" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="42" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="42" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="42" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="42" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" style="42" customWidth="1"/>
+    <col min="14" max="14" width="37.28515625" style="42" customWidth="1"/>
     <col min="15" max="15" width="11" style="42" customWidth="1"/>
-    <col min="16" max="16" width="2.5" style="42" customWidth="1"/>
-    <col min="17" max="17" width="22.375" style="42" customWidth="1"/>
-    <col min="18" max="16384" width="10.625" style="42"/>
+    <col min="16" max="16" width="2.42578125" style="42" customWidth="1"/>
+    <col min="17" max="17" width="22.42578125" style="42" customWidth="1"/>
+    <col min="18" max="16384" width="10.7109375" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="16" thickBot="1"/>
-    <row r="3" spans="1:17">
+    <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -4157,7 +4051,7 @@
       <c r="P3" s="44"/>
       <c r="Q3" s="44"/>
     </row>
-    <row r="4" spans="1:17" s="26" customFormat="1">
+    <row r="4" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="25"/>
       <c r="C4" s="89" t="s">
         <v>19</v>
@@ -4169,22 +4063,22 @@
       </c>
       <c r="G4" s="89"/>
       <c r="H4" s="89" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I4" s="89"/>
       <c r="J4" s="89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K4" s="89"/>
       <c r="L4" s="89" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M4" s="89"/>
       <c r="N4" s="89" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="45"/>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
@@ -4199,7 +4093,7 @@
       <c r="M5" s="47"/>
       <c r="N5" s="54"/>
     </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="45"/>
       <c r="C6" s="12" t="s">
         <v>44</v>
@@ -4216,10 +4110,10 @@
       <c r="M6" s="10"/>
       <c r="N6" s="52"/>
     </row>
-    <row r="7" spans="1:17" ht="16" thickBot="1">
+    <row r="7" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="45"/>
       <c r="C7" s="160" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="50"/>
       <c r="E7" s="50"/>
@@ -4239,10 +4133,10 @@
       <c r="M7" s="47"/>
       <c r="N7" s="105"/>
     </row>
-    <row r="8" spans="1:17" ht="16" thickBot="1">
+    <row r="8" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="45"/>
       <c r="C8" s="107" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="50"/>
       <c r="E8" s="50"/>
@@ -4264,15 +4158,15 @@
       <c r="M8" s="47"/>
       <c r="N8" s="52"/>
     </row>
-    <row r="9" spans="1:17" ht="16" thickBot="1">
+    <row r="9" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="45"/>
       <c r="C9" s="155" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
       <c r="F9" s="121" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="90"/>
       <c r="H9" s="161">
@@ -4288,11 +4182,11 @@
       <c r="M9" s="47"/>
       <c r="N9" s="105"/>
     </row>
-    <row r="10" spans="1:17" ht="16" thickBot="1">
+    <row r="10" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="109"/>
       <c r="B10" s="110"/>
       <c r="C10" s="106" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="50"/>
       <c r="E10" s="50"/>
@@ -4314,16 +4208,16 @@
       <c r="N10" s="140"/>
       <c r="O10" s="109"/>
     </row>
-    <row r="11" spans="1:17" ht="16" thickBot="1">
+    <row r="11" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="109"/>
       <c r="B11" s="110"/>
       <c r="C11" s="139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="107"/>
       <c r="E11" s="107"/>
       <c r="F11" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H11" s="111">
         <f>L11</f>
@@ -4337,15 +4231,15 @@
       </c>
       <c r="M11" s="109"/>
       <c r="N11" s="140" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O11" s="109"/>
     </row>
-    <row r="12" spans="1:17" ht="16" thickBot="1">
+    <row r="12" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="109"/>
       <c r="B12" s="110"/>
       <c r="C12" s="106" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
@@ -4360,11 +4254,11 @@
       <c r="N12" s="140"/>
       <c r="O12" s="109"/>
     </row>
-    <row r="13" spans="1:17" ht="16" thickBot="1">
+    <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="109"/>
       <c r="B13" s="110"/>
       <c r="C13" s="106" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
@@ -4380,11 +4274,11 @@
       <c r="N13" s="140"/>
       <c r="O13" s="109"/>
     </row>
-    <row r="14" spans="1:17" ht="16" thickBot="1">
+    <row r="14" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="109"/>
       <c r="B14" s="110"/>
       <c r="C14" s="106" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -4397,7 +4291,7 @@
       <c r="N14" s="140"/>
       <c r="O14" s="109"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B15" s="45"/>
       <c r="H15" s="48"/>
       <c r="I15" s="106"/>
@@ -4407,7 +4301,7 @@
       <c r="M15" s="47"/>
       <c r="N15" s="140"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="109"/>
       <c r="B16" s="110"/>
       <c r="C16" s="34"/>
@@ -4420,7 +4314,7 @@
       <c r="M16" s="122"/>
       <c r="N16" s="54"/>
     </row>
-    <row r="17" spans="1:14" ht="16" thickBot="1">
+    <row r="17" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="109"/>
       <c r="B17" s="110"/>
       <c r="C17" s="12" t="s">
@@ -4435,11 +4329,11 @@
       <c r="M17" s="122"/>
       <c r="N17" s="105"/>
     </row>
-    <row r="18" spans="1:14" ht="16" thickBot="1">
+    <row r="18" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="109"/>
       <c r="B18" s="110"/>
       <c r="C18" s="125" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="120"/>
       <c r="E18" s="120"/>
@@ -4458,14 +4352,14 @@
       <c r="K18" s="122"/>
       <c r="N18" s="105"/>
     </row>
-    <row r="19" spans="1:14" ht="16" thickBot="1">
+    <row r="19" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="109"/>
       <c r="B19" s="110"/>
       <c r="C19" s="125" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F19" s="127" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H19" s="126">
         <f>J19</f>
@@ -4478,14 +4372,14 @@
       <c r="L19" s="122"/>
       <c r="M19" s="122"/>
       <c r="N19" s="130" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="16" thickBot="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="109"/>
       <c r="B20" s="110"/>
       <c r="C20" s="125" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" s="127" t="s">
         <v>20</v>
@@ -4501,17 +4395,17 @@
       <c r="L20" s="122"/>
       <c r="M20" s="122"/>
       <c r="N20" s="130" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="16" thickBot="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="109"/>
       <c r="B21" s="110"/>
       <c r="C21" s="125" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" s="121" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="162">
         <f>J21</f>
@@ -4521,17 +4415,17 @@
       <c r="L21" s="122"/>
       <c r="M21" s="115"/>
       <c r="N21" s="130" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="16" thickBot="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="109"/>
       <c r="B22" s="110"/>
       <c r="C22" s="125" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F22" s="121" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H22" s="162">
         <f>H20/H11</f>
@@ -4541,14 +4435,14 @@
       <c r="L22" s="123"/>
       <c r="M22" s="115"/>
       <c r="N22" s="130" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="16" thickBot="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="144"/>
       <c r="B23" s="145"/>
       <c r="C23" s="143" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D23" s="144"/>
       <c r="E23" s="144"/>
@@ -4567,14 +4461,14 @@
       <c r="K23" s="147"/>
       <c r="M23" s="144"/>
       <c r="N23" s="148" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="16" thickBot="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="144"/>
       <c r="B24" s="145"/>
       <c r="C24" s="143" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" s="144"/>
       <c r="E24" s="144"/>
@@ -4593,14 +4487,14 @@
       <c r="K24" s="147"/>
       <c r="M24" s="144"/>
       <c r="N24" s="148" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="16" thickBot="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="109"/>
       <c r="B25" s="110"/>
       <c r="C25" s="143" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F25" s="143" t="s">
         <v>20</v>
@@ -4618,16 +4512,16 @@
       <c r="M25" s="115"/>
       <c r="N25" s="130"/>
     </row>
-    <row r="26" spans="1:14" ht="16" thickBot="1">
+    <row r="26" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="144"/>
       <c r="B26" s="145"/>
       <c r="C26" s="149" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="144"/>
       <c r="E26" s="144"/>
       <c r="F26" s="143" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G26" s="144"/>
       <c r="H26" s="146">
@@ -4641,23 +4535,23 @@
       <c r="K26" s="147"/>
       <c r="M26" s="144"/>
       <c r="N26" s="140" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="144"/>
       <c r="B27" s="145"/>
       <c r="H27" s="48"/>
       <c r="J27" s="48"/>
       <c r="N27" s="52"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B28" s="45"/>
       <c r="H28" s="48"/>
       <c r="J28" s="48"/>
       <c r="N28" s="105"/>
     </row>
-    <row r="29" spans="1:14" ht="16" thickBot="1">
+    <row r="29" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="109"/>
       <c r="B29" s="110"/>
       <c r="C29" s="34" t="s">
@@ -4672,7 +4566,7 @@
       <c r="M29" s="11"/>
       <c r="N29" s="140"/>
     </row>
-    <row r="30" spans="1:14" ht="16" thickBot="1">
+    <row r="30" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="109"/>
       <c r="B30" s="110"/>
       <c r="C30" s="124" t="s">
@@ -4695,11 +4589,11 @@
       <c r="M30" s="123"/>
       <c r="N30" s="140"/>
     </row>
-    <row r="31" spans="1:14" ht="16" thickBot="1">
+    <row r="31" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="109"/>
       <c r="B31" s="110"/>
       <c r="C31" s="107" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F31" s="121" t="s">
         <v>1</v>
@@ -4714,14 +4608,14 @@
       <c r="M31" s="123"/>
       <c r="N31" s="140"/>
     </row>
-    <row r="32" spans="1:14" ht="16" thickBot="1">
+    <row r="32" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="109"/>
       <c r="B32" s="110"/>
       <c r="C32" s="120" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F32" s="121" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H32" s="126">
         <f>L32</f>
@@ -4733,7 +4627,7 @@
       <c r="M32" s="11"/>
       <c r="N32" s="130"/>
     </row>
-    <row r="33" spans="1:14" ht="16" thickBot="1">
+    <row r="33" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="109"/>
       <c r="B33" s="110"/>
       <c r="C33" s="102" t="s">
@@ -4746,51 +4640,51 @@
       <c r="J33" s="48"/>
       <c r="N33" s="105"/>
     </row>
-    <row r="34" spans="1:14" ht="16" thickBot="1">
+    <row r="34" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="109"/>
       <c r="B34" s="110"/>
       <c r="C34" s="106" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H34" s="111"/>
       <c r="J34" s="48"/>
       <c r="N34" s="140"/>
     </row>
-    <row r="35" spans="1:14" ht="16" thickBot="1">
+    <row r="35" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="109"/>
       <c r="B35" s="110"/>
       <c r="C35" s="106" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H35" s="111"/>
       <c r="J35" s="48"/>
       <c r="N35" s="140"/>
     </row>
-    <row r="36" spans="1:14" ht="16" thickBot="1">
+    <row r="36" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="109"/>
       <c r="B36" s="110"/>
       <c r="C36" s="106" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H36" s="111"/>
       <c r="J36" s="48"/>
       <c r="N36" s="140"/>
     </row>
-    <row r="37" spans="1:14" ht="16" thickBot="1">
+    <row r="37" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="109"/>
       <c r="B37" s="110"/>
       <c r="C37" s="106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H37" s="111"/>
       <c r="J37" s="48"/>
       <c r="N37" s="140"/>
     </row>
-    <row r="38" spans="1:14" ht="16" thickBot="1">
+    <row r="38" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="109"/>
       <c r="B38" s="110"/>
       <c r="C38" s="106" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H38" s="111"/>
       <c r="J38" s="48"/>
@@ -4799,11 +4693,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4818,22 +4707,22 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="56" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="56" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="56" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="56" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="56" customWidth="1"/>
-    <col min="6" max="7" width="13.125" style="56" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="61" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="61" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="56" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="56"/>
+    <col min="1" max="1" width="3.42578125" style="56" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="56" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="56" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="56" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="56" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="56" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="61" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="61" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="56" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="57"/>
       <c r="C2" s="58"/>
       <c r="D2" s="58"/>
@@ -4844,7 +4733,7 @@
       <c r="I2" s="62"/>
       <c r="J2" s="58"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="59"/>
       <c r="C3" s="13" t="s">
         <v>15</v>
@@ -4857,7 +4746,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="59"/>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
@@ -4868,7 +4757,7 @@
       <c r="I4" s="63"/>
       <c r="J4" s="55"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="64"/>
       <c r="C5" s="15" t="s">
         <v>16</v>
@@ -4883,19 +4772,19 @@
         <v>17</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="59"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -4906,16 +4795,16 @@
       <c r="I6" s="18"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10" ht="16">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="59"/>
       <c r="C7" s="157" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="158" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="158" t="s">
         <v>111</v>
-      </c>
-      <c r="D7" s="158" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="158" t="s">
-        <v>112</v>
       </c>
       <c r="F7" s="55">
         <v>2015</v>
@@ -4927,16 +4816,16 @@
         <v>42558</v>
       </c>
       <c r="I7" s="98" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J7" s="159" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="59"/>
       <c r="C8" s="156" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8" s="55"/>
       <c r="E8" s="55"/>
@@ -4946,7 +4835,7 @@
       <c r="I8" s="55"/>
       <c r="J8" s="55"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="59"/>
       <c r="C9" s="109" t="s">
         <v>24</v>
@@ -4958,10 +4847,10 @@
       <c r="H9" s="101"/>
       <c r="I9" s="55"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="59"/>
       <c r="C10" s="128" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="55"/>
       <c r="E10" s="55"/>
@@ -4971,10 +4860,10 @@
       <c r="I10" s="98"/>
       <c r="J10" s="97"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="59"/>
       <c r="C11" s="129" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="114"/>
       <c r="E11" s="114"/>
@@ -4984,10 +4873,10 @@
       <c r="I11" s="55"/>
       <c r="J11" s="114"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="59"/>
       <c r="C12" s="128" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
@@ -4997,7 +4886,7 @@
       <c r="I12" s="55"/>
       <c r="J12" s="55"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="59"/>
       <c r="C13" s="129"/>
       <c r="D13" s="55"/>
@@ -5008,7 +4897,7 @@
       <c r="I13" s="55"/>
       <c r="J13" s="55"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="59"/>
       <c r="C14" s="109"/>
       <c r="D14" s="133"/>
@@ -5019,7 +4908,7 @@
       <c r="I14" s="114"/>
       <c r="J14" s="96"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="59"/>
       <c r="E15" s="104"/>
       <c r="F15" s="55"/>
@@ -5028,7 +4917,7 @@
       <c r="I15" s="114"/>
       <c r="J15" s="96"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="59"/>
       <c r="C16" s="157"/>
       <c r="D16" s="109"/>
@@ -5039,22 +4928,22 @@
       <c r="I16" s="114"/>
       <c r="J16" s="55"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="59"/>
       <c r="C17" s="156"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="59"/>
       <c r="C18" s="109"/>
     </row>
-    <row r="19" spans="2:10" ht="16">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="59"/>
       <c r="C19" s="167"/>
       <c r="D19" s="170" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="170" t="s">
         <v>120</v>
-      </c>
-      <c r="E19" s="170" t="s">
-        <v>121</v>
       </c>
       <c r="F19" s="56">
         <v>2015</v>
@@ -5066,10 +4955,10 @@
         <v>42612</v>
       </c>
       <c r="J19" s="171" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="59"/>
       <c r="C20" s="129"/>
       <c r="D20" s="55"/>
@@ -5080,16 +4969,16 @@
       <c r="I20" s="55"/>
       <c r="J20" s="55"/>
     </row>
-    <row r="21" spans="2:10" ht="16">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="59"/>
       <c r="C21" s="167" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="168" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="168" t="s">
-        <v>117</v>
-      </c>
       <c r="E21" s="168" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F21" s="55">
         <v>2013</v>
@@ -5101,13 +4990,13 @@
         <v>42612</v>
       </c>
       <c r="I21" s="98" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J21" s="169" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="59"/>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
@@ -5117,11 +5006,11 @@
       <c r="I22" s="55"/>
       <c r="J22" s="55"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H30" s="172"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J7" r:id="rId1"/>
     <hyperlink ref="J21" r:id="rId2"/>
@@ -5129,11 +5018,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5148,23 +5032,23 @@
       <selection activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="65" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="65" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="65" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="65" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="65" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="65" customWidth="1"/>
     <col min="4" max="4" width="4" style="65" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="65" customWidth="1"/>
-    <col min="6" max="6" width="6.125" style="65" customWidth="1"/>
-    <col min="7" max="13" width="10.625" style="65"/>
-    <col min="14" max="14" width="15.75" style="65" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="65"/>
-    <col min="16" max="16" width="54.75" style="65" customWidth="1"/>
-    <col min="17" max="16384" width="10.625" style="65"/>
+    <col min="5" max="5" width="13.140625" style="65" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="65" customWidth="1"/>
+    <col min="7" max="13" width="10.7109375" style="65"/>
+    <col min="14" max="14" width="15.7109375" style="65" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="65"/>
+    <col min="16" max="16" width="54.7109375" style="65" customWidth="1"/>
+    <col min="17" max="16384" width="10.7109375" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" thickBot="1"/>
-    <row r="2" spans="1:15">
+    <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" s="66"/>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
@@ -5179,14 +5063,14 @@
       <c r="M2" s="67"/>
       <c r="N2" s="68"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="69"/>
       <c r="B3" s="94"/>
       <c r="C3" s="73" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="73" t="s">
         <v>25</v>
@@ -5201,7 +5085,7 @@
       <c r="M3" s="70"/>
       <c r="N3" s="95"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="71"/>
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
@@ -5217,7 +5101,7 @@
       <c r="N4" s="72"/>
       <c r="O4" s="72"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="71"/>
       <c r="D5" s="72"/>
       <c r="E5" s="72"/>
@@ -5232,7 +5116,7 @@
       <c r="N5" s="72"/>
       <c r="O5" s="72"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="71"/>
       <c r="D6" s="72"/>
       <c r="G6" s="72"/>
@@ -5245,7 +5129,7 @@
       <c r="N6" s="72"/>
       <c r="O6" s="72"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="71"/>
       <c r="D7" s="72"/>
       <c r="E7" s="72"/>
@@ -5260,7 +5144,7 @@
       <c r="N7" s="72"/>
       <c r="O7" s="72"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="71"/>
       <c r="D8" s="72"/>
       <c r="E8" s="72"/>
@@ -5275,7 +5159,7 @@
       <c r="N8" s="72"/>
       <c r="O8" s="72"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="71"/>
       <c r="C9" s="72"/>
       <c r="D9" s="72"/>
@@ -5291,7 +5175,7 @@
       <c r="N9" s="72"/>
       <c r="O9" s="72"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="71"/>
       <c r="C10" s="72"/>
       <c r="D10" s="72"/>
@@ -5307,7 +5191,7 @@
       <c r="N10" s="72"/>
       <c r="O10" s="72"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="71"/>
       <c r="C11" s="72"/>
       <c r="D11" s="72"/>
@@ -5323,7 +5207,7 @@
       <c r="N11" s="72"/>
       <c r="O11" s="72"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="71"/>
       <c r="C12" s="72"/>
       <c r="D12" s="72"/>
@@ -5339,7 +5223,7 @@
       <c r="N12" s="72"/>
       <c r="O12" s="72"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" s="71"/>
       <c r="C13" s="72"/>
       <c r="D13" s="72"/>
@@ -5355,7 +5239,7 @@
       <c r="N13" s="72"/>
       <c r="O13" s="72"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="71"/>
       <c r="C14" s="72"/>
       <c r="D14" s="72"/>
@@ -5371,7 +5255,7 @@
       <c r="N14" s="72"/>
       <c r="O14" s="72"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" s="71"/>
       <c r="E15" s="72"/>
       <c r="F15" s="72"/>
@@ -5385,10 +5269,10 @@
       <c r="N15" s="72"/>
       <c r="O15" s="72"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" s="71"/>
       <c r="C16" s="72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D16" s="72"/>
       <c r="E16" s="72"/>
@@ -5403,7 +5287,7 @@
       <c r="N16" s="72"/>
       <c r="O16" s="72"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="71"/>
       <c r="C17" s="72"/>
       <c r="D17" s="72"/>
@@ -5411,10 +5295,10 @@
         <v>2190</v>
       </c>
       <c r="F17" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="65" t="s">
         <v>134</v>
-      </c>
-      <c r="G17" s="65" t="s">
-        <v>135</v>
       </c>
       <c r="I17" s="72"/>
       <c r="J17" s="72"/>
@@ -5424,12 +5308,12 @@
       <c r="N17" s="72"/>
       <c r="O17" s="72"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="71"/>
       <c r="C18" s="72"/>
       <c r="D18" s="72"/>
       <c r="G18" s="65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I18" s="72"/>
       <c r="J18" s="72"/>
@@ -5439,7 +5323,7 @@
       <c r="N18" s="72"/>
       <c r="O18" s="72"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="71"/>
       <c r="C19" s="72"/>
       <c r="D19" s="72"/>
@@ -5455,7 +5339,7 @@
       <c r="N19" s="72"/>
       <c r="O19" s="72"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="71"/>
       <c r="C20" s="72"/>
       <c r="D20" s="72"/>
@@ -5471,7 +5355,7 @@
       <c r="N20" s="72"/>
       <c r="O20" s="72"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="71"/>
       <c r="C21" s="72"/>
       <c r="D21" s="72"/>
@@ -5487,7 +5371,7 @@
       <c r="N21" s="72"/>
       <c r="O21" s="72"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="71"/>
       <c r="C22" s="72"/>
       <c r="D22" s="72"/>
@@ -5503,7 +5387,7 @@
       <c r="N22" s="72"/>
       <c r="O22" s="72"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="71"/>
       <c r="C23" s="72"/>
       <c r="D23" s="72"/>
@@ -5519,10 +5403,10 @@
       <c r="N23" s="72"/>
       <c r="O23" s="72"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="71"/>
       <c r="C24" s="72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D24" s="72">
         <v>89</v>
@@ -5539,7 +5423,7 @@
       <c r="N24" s="72"/>
       <c r="O24" s="72"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="71"/>
       <c r="C25" s="72"/>
       <c r="D25" s="72"/>
@@ -5555,7 +5439,7 @@
       <c r="N25" s="72"/>
       <c r="O25" s="72"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="71"/>
       <c r="C26" s="72"/>
       <c r="D26" s="72"/>
@@ -5571,7 +5455,7 @@
       <c r="N26" s="72"/>
       <c r="O26" s="72"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="71"/>
       <c r="C27" s="72"/>
       <c r="D27" s="72"/>
@@ -5587,7 +5471,7 @@
       <c r="N27" s="72"/>
       <c r="O27" s="72"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="71"/>
       <c r="C28" s="72"/>
       <c r="D28" s="72"/>
@@ -5603,7 +5487,7 @@
       <c r="N28" s="72"/>
       <c r="O28" s="72"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="71"/>
       <c r="C29" s="72"/>
       <c r="D29" s="72"/>
@@ -5619,7 +5503,7 @@
       <c r="N29" s="72"/>
       <c r="O29" s="72"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="71"/>
       <c r="C30" s="72"/>
       <c r="D30" s="72"/>
@@ -5628,10 +5512,10 @@
         <v>50</v>
       </c>
       <c r="F30" s="65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G30" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H30" s="72"/>
       <c r="I30" s="72"/>
@@ -5642,7 +5526,7 @@
       <c r="N30" s="72"/>
       <c r="O30" s="72"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="71"/>
       <c r="C31" s="72"/>
       <c r="D31" s="72"/>
@@ -5658,7 +5542,7 @@
       <c r="N31" s="72"/>
       <c r="O31" s="72"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="71"/>
       <c r="C32" s="72"/>
       <c r="D32" s="72"/>
@@ -5674,7 +5558,7 @@
       <c r="N32" s="72"/>
       <c r="O32" s="72"/>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="71"/>
       <c r="C33" s="72"/>
       <c r="E33" s="72"/>
@@ -5689,7 +5573,7 @@
       <c r="N33" s="72"/>
       <c r="O33" s="72"/>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="71"/>
       <c r="E34" s="72"/>
       <c r="H34" s="72"/>
@@ -5701,7 +5585,7 @@
       <c r="N34" s="72"/>
       <c r="O34" s="72"/>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="71"/>
       <c r="C35" s="72"/>
       <c r="D35" s="72"/>
@@ -5717,7 +5601,7 @@
       <c r="N35" s="72"/>
       <c r="O35" s="72"/>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="71"/>
       <c r="C36" s="72"/>
       <c r="D36" s="72"/>
@@ -5733,7 +5617,7 @@
       <c r="N36" s="72"/>
       <c r="O36" s="72"/>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="71"/>
       <c r="C37" s="72"/>
       <c r="D37" s="72"/>
@@ -5749,7 +5633,7 @@
       <c r="N37" s="72"/>
       <c r="O37" s="72"/>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="71"/>
       <c r="C38" s="72"/>
       <c r="D38" s="72"/>
@@ -5763,7 +5647,7 @@
       <c r="N38" s="72"/>
       <c r="O38" s="72"/>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="71"/>
       <c r="C39" s="72"/>
       <c r="D39" s="72"/>
@@ -5772,7 +5656,7 @@
       </c>
       <c r="F39" s="72"/>
       <c r="G39" s="152" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H39" s="152"/>
       <c r="I39" s="152"/>
@@ -5783,7 +5667,7 @@
       <c r="N39" s="72"/>
       <c r="O39" s="72"/>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="71"/>
       <c r="C40" s="72"/>
       <c r="D40" s="72"/>
@@ -5799,7 +5683,7 @@
       <c r="N40" s="72"/>
       <c r="O40" s="72"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="71"/>
       <c r="C41" s="72"/>
       <c r="D41" s="72"/>
@@ -5815,7 +5699,7 @@
       <c r="N41" s="72"/>
       <c r="O41" s="72"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="71"/>
       <c r="C42" s="72"/>
       <c r="K42" s="72"/>
@@ -5824,7 +5708,7 @@
       <c r="N42" s="72"/>
       <c r="O42" s="72"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="71"/>
       <c r="C43" s="72"/>
       <c r="K43" s="72"/>
@@ -5833,7 +5717,7 @@
       <c r="N43" s="72"/>
       <c r="O43" s="72"/>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="71"/>
       <c r="C44" s="72"/>
       <c r="K44" s="72"/>
@@ -5842,7 +5726,7 @@
       <c r="N44" s="72"/>
       <c r="O44" s="72"/>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="71"/>
       <c r="C45" s="72"/>
       <c r="K45" s="72"/>
@@ -5851,7 +5735,7 @@
       <c r="N45" s="72"/>
       <c r="O45" s="72"/>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="71"/>
       <c r="C46" s="72"/>
       <c r="E46" s="100"/>
@@ -5862,7 +5746,7 @@
       <c r="N46" s="72"/>
       <c r="O46" s="72"/>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="71"/>
       <c r="C47" s="72"/>
       <c r="E47" s="72"/>
@@ -5873,14 +5757,14 @@
       <c r="N47" s="72"/>
       <c r="O47" s="72"/>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="71"/>
       <c r="C48" s="72"/>
       <c r="E48" s="65">
         <v>60</v>
       </c>
       <c r="F48" s="65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K48" s="72"/>
       <c r="L48" s="72"/>
@@ -5888,7 +5772,7 @@
       <c r="N48" s="72"/>
       <c r="O48" s="72"/>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="71"/>
       <c r="C49" s="72"/>
       <c r="E49" s="65">
@@ -5907,7 +5791,7 @@
       <c r="N49" s="72"/>
       <c r="O49" s="72"/>
     </row>
-    <row r="50" spans="2:15" ht="16">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="71"/>
       <c r="C50" s="72"/>
       <c r="J50"/>
@@ -5917,7 +5801,7 @@
       <c r="N50" s="72"/>
       <c r="O50" s="72"/>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="71"/>
       <c r="D51" s="72"/>
       <c r="K51" s="72"/>
@@ -5926,7 +5810,7 @@
       <c r="N51" s="72"/>
       <c r="O51" s="72"/>
     </row>
-    <row r="52" spans="2:15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="71"/>
       <c r="C52" s="72"/>
       <c r="D52" s="72"/>
@@ -5934,7 +5818,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K52" s="72"/>
       <c r="L52" s="72"/>
@@ -5942,7 +5826,7 @@
       <c r="N52" s="72"/>
       <c r="O52" s="72"/>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="71"/>
       <c r="C53" s="72"/>
       <c r="D53" s="72"/>
@@ -5954,7 +5838,7 @@
         <v>20</v>
       </c>
       <c r="G53" s="65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K53" s="72"/>
       <c r="L53" s="72"/>
@@ -5962,7 +5846,7 @@
       <c r="N53" s="72"/>
       <c r="O53" s="72"/>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="71"/>
       <c r="C54" s="72"/>
       <c r="D54" s="72"/>
@@ -5970,7 +5854,7 @@
         <v>0.5</v>
       </c>
       <c r="F54" s="65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K54" s="72"/>
       <c r="L54" s="72"/>
@@ -5978,7 +5862,7 @@
       <c r="N54" s="72"/>
       <c r="O54" s="72"/>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" s="71"/>
       <c r="C55" s="72"/>
       <c r="D55" s="72"/>
@@ -5990,7 +5874,7 @@
         <v>20</v>
       </c>
       <c r="G55" s="65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K55" s="72"/>
       <c r="L55" s="72"/>
@@ -5998,7 +5882,7 @@
       <c r="N55" s="72"/>
       <c r="O55" s="72"/>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B56" s="71"/>
       <c r="C56" s="72"/>
       <c r="K56" s="72"/>
@@ -6007,14 +5891,14 @@
       <c r="N56" s="72"/>
       <c r="O56" s="72"/>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" s="71"/>
       <c r="C57" s="72"/>
       <c r="E57" s="65">
         <v>15</v>
       </c>
       <c r="F57" s="65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G57" s="65" t="s">
         <v>24</v>
@@ -6025,7 +5909,7 @@
       <c r="N57" s="72"/>
       <c r="O57" s="72"/>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" s="71"/>
       <c r="C58" s="72"/>
       <c r="K58" s="72"/>
@@ -6034,7 +5918,7 @@
       <c r="N58" s="72"/>
       <c r="O58" s="72"/>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="71"/>
       <c r="C59" s="72"/>
       <c r="K59" s="72"/>
@@ -6043,7 +5927,7 @@
       <c r="N59" s="72"/>
       <c r="O59" s="72"/>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" s="71"/>
       <c r="C60" s="72"/>
       <c r="K60" s="72"/>
@@ -6052,7 +5936,7 @@
       <c r="N60" s="72"/>
       <c r="O60" s="72"/>
     </row>
-    <row r="61" spans="2:15">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" s="71"/>
       <c r="C61" s="72"/>
       <c r="K61" s="72"/>
@@ -6061,7 +5945,7 @@
       <c r="N61" s="72"/>
       <c r="O61" s="72"/>
     </row>
-    <row r="62" spans="2:15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" s="71"/>
       <c r="C62" s="72"/>
       <c r="K62" s="72"/>
@@ -6070,7 +5954,7 @@
       <c r="N62" s="72"/>
       <c r="O62" s="72"/>
     </row>
-    <row r="63" spans="2:15">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" s="71"/>
       <c r="C63" s="72"/>
       <c r="K63" s="72"/>
@@ -6079,7 +5963,7 @@
       <c r="N63" s="72"/>
       <c r="O63" s="72"/>
     </row>
-    <row r="64" spans="2:15">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" s="71"/>
       <c r="C64" s="72"/>
       <c r="K64" s="72"/>
@@ -6088,7 +5972,7 @@
       <c r="N64" s="72"/>
       <c r="O64" s="72"/>
     </row>
-    <row r="65" spans="2:15">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="71"/>
       <c r="C65" s="72"/>
       <c r="K65" s="72"/>
@@ -6097,7 +5981,7 @@
       <c r="N65" s="72"/>
       <c r="O65" s="72"/>
     </row>
-    <row r="66" spans="2:15">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="71"/>
       <c r="C66" s="72"/>
       <c r="K66" s="72"/>
@@ -6106,7 +5990,7 @@
       <c r="N66" s="72"/>
       <c r="O66" s="72"/>
     </row>
-    <row r="67" spans="2:15">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" s="71"/>
       <c r="C67" s="72"/>
       <c r="K67" s="72"/>
@@ -6115,7 +5999,7 @@
       <c r="N67" s="72"/>
       <c r="O67" s="72"/>
     </row>
-    <row r="68" spans="2:15">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68" s="71"/>
       <c r="C68" s="72"/>
       <c r="K68" s="72"/>
@@ -6124,7 +6008,7 @@
       <c r="N68" s="72"/>
       <c r="O68" s="72"/>
     </row>
-    <row r="69" spans="2:15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69" s="71"/>
       <c r="C69" s="72"/>
       <c r="K69" s="72"/>
@@ -6133,7 +6017,7 @@
       <c r="N69" s="72"/>
       <c r="O69" s="72"/>
     </row>
-    <row r="70" spans="2:15">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70" s="71"/>
       <c r="C70" s="72"/>
       <c r="K70" s="72"/>
@@ -6142,682 +6026,682 @@
       <c r="N70" s="72"/>
       <c r="O70" s="72"/>
     </row>
-    <row r="71" spans="2:15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71" s="71"/>
       <c r="N71" s="72"/>
       <c r="O71" s="72"/>
     </row>
-    <row r="72" spans="2:15">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72" s="71"/>
       <c r="N72" s="72"/>
       <c r="O72" s="72"/>
     </row>
-    <row r="73" spans="2:15">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" s="71"/>
       <c r="N73" s="72"/>
       <c r="O73" s="72"/>
     </row>
-    <row r="74" spans="2:15">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" s="71"/>
       <c r="C74" s="170" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N74" s="72"/>
       <c r="O74" s="72"/>
     </row>
-    <row r="75" spans="2:15">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" s="71"/>
       <c r="C75" s="72"/>
       <c r="D75" s="72"/>
       <c r="N75" s="72"/>
       <c r="O75" s="72"/>
     </row>
-    <row r="76" spans="2:15">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76" s="71"/>
       <c r="C76" s="72"/>
       <c r="N76" s="72"/>
       <c r="O76" s="72"/>
     </row>
-    <row r="77" spans="2:15">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B77" s="71"/>
       <c r="E77" s="153"/>
       <c r="N77" s="72"/>
       <c r="O77" s="72"/>
     </row>
-    <row r="78" spans="2:15">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B78" s="71"/>
       <c r="E78" s="65">
         <v>50</v>
       </c>
       <c r="F78" s="65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G78" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N78" s="72"/>
       <c r="O78" s="72"/>
     </row>
-    <row r="79" spans="2:15">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="71"/>
       <c r="N79" s="72"/>
       <c r="O79" s="72"/>
     </row>
-    <row r="80" spans="2:15">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B80" s="71"/>
       <c r="F80" s="131"/>
       <c r="N80" s="72"/>
       <c r="O80" s="72"/>
     </row>
-    <row r="81" spans="2:15">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B81" s="71"/>
       <c r="N81" s="72"/>
       <c r="O81" s="72"/>
     </row>
-    <row r="82" spans="2:15">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B82" s="71"/>
       <c r="N82" s="72"/>
       <c r="O82" s="72"/>
     </row>
-    <row r="83" spans="2:15">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B83" s="71"/>
       <c r="N83" s="72"/>
       <c r="O83" s="72"/>
     </row>
-    <row r="84" spans="2:15">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B84" s="71"/>
     </row>
-    <row r="85" spans="2:15">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B85" s="71"/>
     </row>
-    <row r="86" spans="2:15">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B86" s="71"/>
     </row>
-    <row r="87" spans="2:15">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B87" s="71"/>
       <c r="C87" s="72"/>
     </row>
-    <row r="88" spans="2:15">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B88" s="71"/>
       <c r="C88" s="72"/>
     </row>
-    <row r="89" spans="2:15">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B89" s="71"/>
       <c r="C89" s="72"/>
     </row>
-    <row r="90" spans="2:15">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B90" s="71"/>
       <c r="C90" s="72"/>
     </row>
-    <row r="91" spans="2:15">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B91" s="71"/>
       <c r="C91" s="72"/>
     </row>
-    <row r="92" spans="2:15">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B92" s="71"/>
       <c r="C92" s="72"/>
       <c r="E92" s="132"/>
     </row>
-    <row r="93" spans="2:15">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B93" s="71"/>
     </row>
-    <row r="94" spans="2:15">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B94" s="71"/>
     </row>
-    <row r="95" spans="2:15">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B95" s="71"/>
     </row>
-    <row r="96" spans="2:15">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B96" s="71"/>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B97" s="71"/>
     </row>
-    <row r="98" spans="2:2">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B98" s="71"/>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B99" s="71"/>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B100" s="71"/>
     </row>
-    <row r="101" spans="2:2">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B101" s="71"/>
     </row>
-    <row r="102" spans="2:2">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B102" s="71"/>
     </row>
-    <row r="103" spans="2:2">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B103" s="71"/>
     </row>
-    <row r="104" spans="2:2">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B104" s="71"/>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B105" s="71"/>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B106" s="71"/>
     </row>
-    <row r="107" spans="2:2">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B107" s="71"/>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B108" s="71"/>
     </row>
-    <row r="109" spans="2:2">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B109" s="71"/>
     </row>
-    <row r="110" spans="2:2">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B110" s="71"/>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B111" s="71"/>
     </row>
-    <row r="112" spans="2:2">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B112" s="71"/>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B113" s="71"/>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B114" s="71"/>
     </row>
-    <row r="115" spans="2:2">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B115" s="71"/>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B116" s="71"/>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117" s="71"/>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B118" s="71"/>
     </row>
-    <row r="119" spans="2:2">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B119" s="71"/>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B120" s="71"/>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B121" s="71"/>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B122" s="71"/>
     </row>
-    <row r="123" spans="2:2">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B123" s="71"/>
     </row>
-    <row r="124" spans="2:2">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B124" s="71"/>
     </row>
-    <row r="125" spans="2:2">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B125" s="71"/>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B126" s="71"/>
     </row>
-    <row r="127" spans="2:2">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B127" s="71"/>
     </row>
-    <row r="128" spans="2:2">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B128" s="71"/>
     </row>
-    <row r="129" spans="2:4">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B129" s="71"/>
     </row>
-    <row r="130" spans="2:4">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B130" s="71"/>
     </row>
-    <row r="131" spans="2:4">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B131" s="71"/>
     </row>
-    <row r="132" spans="2:4">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B132" s="71"/>
     </row>
-    <row r="133" spans="2:4">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B133" s="71"/>
     </row>
-    <row r="134" spans="2:4">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" s="71"/>
     </row>
-    <row r="135" spans="2:4">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B135" s="71"/>
     </row>
-    <row r="136" spans="2:4">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B136" s="71"/>
     </row>
-    <row r="137" spans="2:4">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B137" s="71"/>
     </row>
-    <row r="138" spans="2:4">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B138" s="71"/>
     </row>
-    <row r="139" spans="2:4">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B139" s="71"/>
     </row>
-    <row r="140" spans="2:4">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B140" s="71"/>
       <c r="C140" s="65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D140" s="65">
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="2:4">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B141" s="71"/>
     </row>
-    <row r="142" spans="2:4">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B142" s="71"/>
     </row>
-    <row r="143" spans="2:4">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B143" s="71"/>
     </row>
-    <row r="144" spans="2:4">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B144" s="71"/>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="152"/>
       <c r="B145" s="154"/>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="152"/>
       <c r="B146" s="154"/>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="152"/>
       <c r="B147" s="154"/>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="152"/>
       <c r="B148" s="154"/>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="152"/>
       <c r="B149" s="154"/>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="152"/>
       <c r="B150" s="154"/>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="152"/>
       <c r="B151" s="154"/>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="152"/>
       <c r="B152" s="154"/>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="152"/>
       <c r="B153" s="154"/>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="152"/>
       <c r="B154" s="154"/>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="152"/>
       <c r="B155" s="154"/>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="152"/>
       <c r="B156" s="154"/>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="152"/>
       <c r="B157" s="154"/>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="152"/>
       <c r="B158" s="154"/>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="152"/>
       <c r="B159" s="154"/>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="152"/>
       <c r="B160" s="154"/>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="152"/>
       <c r="B161" s="154"/>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="152"/>
       <c r="B162" s="154"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="152"/>
       <c r="B163" s="154"/>
       <c r="E163" s="65" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="152"/>
       <c r="B164" s="154"/>
       <c r="E164" s="65" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="152"/>
       <c r="B165" s="154"/>
       <c r="E165" s="65" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="152"/>
       <c r="B166" s="154"/>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="152"/>
       <c r="B167" s="154"/>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="152"/>
       <c r="B168" s="154"/>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="152"/>
       <c r="B169" s="154"/>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="152"/>
       <c r="B170" s="154"/>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="152"/>
       <c r="B171" s="154"/>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="152"/>
       <c r="B172" s="154"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="152"/>
       <c r="B173" s="154"/>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="152"/>
       <c r="B174" s="154"/>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="152"/>
       <c r="B175" s="154"/>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="152"/>
       <c r="B176" s="154"/>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="152"/>
       <c r="B177" s="154"/>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="152"/>
       <c r="B178" s="154"/>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="152"/>
       <c r="B179" s="154"/>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="152"/>
       <c r="B180" s="154"/>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="152"/>
       <c r="B181" s="154"/>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="152"/>
       <c r="B182" s="154"/>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="152"/>
       <c r="B183" s="154"/>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="152"/>
       <c r="B184" s="154"/>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="152"/>
       <c r="B185" s="154"/>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="152"/>
       <c r="B186" s="154"/>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="152"/>
       <c r="B187" s="154"/>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="152"/>
       <c r="B188" s="154"/>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="152"/>
       <c r="B189" s="154"/>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="152"/>
       <c r="B190" s="154"/>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="152"/>
       <c r="B191" s="154"/>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="152"/>
       <c r="B192" s="154"/>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="152"/>
       <c r="B193" s="154"/>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="152"/>
       <c r="B194" s="154"/>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="152"/>
       <c r="B195" s="154"/>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="152"/>
       <c r="B196" s="154"/>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="152"/>
       <c r="B197" s="154"/>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="152"/>
       <c r="B198" s="154"/>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="152"/>
       <c r="B199" s="154"/>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="152"/>
       <c r="B200" s="154"/>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="152"/>
       <c r="B201" s="154"/>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="152"/>
       <c r="B202" s="154"/>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="152"/>
       <c r="B203" s="154"/>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="152"/>
       <c r="B204" s="154"/>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="152"/>
       <c r="B205" s="154"/>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="152"/>
       <c r="B206" s="154"/>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="152"/>
       <c r="B207" s="154"/>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="152"/>
       <c r="B208" s="154"/>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="152"/>
       <c r="B209" s="154"/>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="152"/>
       <c r="B210" s="154"/>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="152"/>
       <c r="B211" s="154"/>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="152"/>
       <c r="B212" s="154"/>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="152"/>
       <c r="B213" s="154"/>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="152"/>
       <c r="B214" s="154"/>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="152"/>
       <c r="B215" s="154"/>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="152"/>
       <c r="B216" s="154"/>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="152"/>
       <c r="B217" s="154"/>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="152"/>
       <c r="B218" s="154"/>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="152"/>
       <c r="B219" s="154"/>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="152"/>
       <c r="B220" s="154"/>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="152"/>
       <c r="B221" s="154"/>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="152"/>
       <c r="B222" s="154"/>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="152"/>
       <c r="B223" s="154"/>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="152"/>
       <c r="B224" s="154"/>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="152"/>
       <c r="B225" s="154"/>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="152"/>
       <c r="B226" s="154"/>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="152"/>
       <c r="B227" s="154"/>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="152"/>
       <c r="B228" s="154"/>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="152"/>
       <c r="B229" s="154"/>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="152"/>
       <c r="B230" s="154"/>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="152"/>
       <c r="B231" s="154"/>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="152"/>
       <c r="B232" s="154"/>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="152"/>
       <c r="B233" s="154"/>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="152"/>
       <c r="B234" s="154"/>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="152"/>
       <c r="B235" s="154"/>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="152"/>
       <c r="B236" s="154"/>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="152"/>
       <c r="B237" s="154"/>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="152"/>
       <c r="B238" s="154"/>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="152"/>
       <c r="B239" s="154"/>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="152"/>
       <c r="B240" s="154"/>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="152"/>
       <c r="B241" s="154"/>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="152"/>
       <c r="B242" s="154"/>
     </row>
@@ -6825,10 +6709,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/industry/industry_other_food_heater_electricity.converter.xlsx
+++ b/nodes_source_analyses/industry/industry_other_food_heater_electricity.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/industry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF09473E-4F0F-8E46-A00C-0708B523A388}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -42,10 +43,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -55,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="143">
   <si>
     <t>Source</t>
   </si>
@@ -584,17 +591,20 @@
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -788,6 +798,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -795,6 +806,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -802,6 +814,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -809,17 +822,20 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -827,12 +843,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -848,11 +866,13 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1637,7 +1657,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1913,6 +1933,7 @@
     <xf numFmtId="0" fontId="34" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="484">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2398,13 +2419,16 @@
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="275"/>
+    <cellStyle name="Normal 2" xfId="275" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2422,7 +2446,13 @@
     <xdr:ext cx="3632200" cy="927100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2483,7 +2513,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2521,7 +2557,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2559,7 +2601,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2597,7 +2645,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3118,15 +3172,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="22" customWidth="1"/>
@@ -3134,24 +3188,24 @@
     <col min="4" max="16384" width="10.7109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="29" customFormat="1">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -3160,7 +3214,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>41</v>
@@ -3169,7 +3223,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -3178,29 +3232,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="74" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="75"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="76"/>
       <c r="C10" s="77"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="76" t="s">
         <v>27</v>
@@ -3209,33 +3263,33 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="76"/>
       <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="76"/>
       <c r="C13" s="79" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="76"/>
       <c r="C14" s="77" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="76"/>
       <c r="C15" s="77"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="76" t="s">
         <v>32</v>
@@ -3244,49 +3298,49 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="76"/>
       <c r="C17" s="81" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="76"/>
       <c r="C18" s="82" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="76"/>
       <c r="C19" s="83" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="84"/>
       <c r="C20" s="85" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="84"/>
       <c r="C21" s="86" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="84"/>
       <c r="C22" s="87" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="B23" s="84"/>
       <c r="C23" s="88" t="s">
         <v>40</v>
@@ -3299,17 +3353,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="35" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="35" customWidth="1"/>
@@ -3324,10 +3378,10 @@
     <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="D1" s="36"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="B2" s="176" t="s">
         <v>141</v>
       </c>
@@ -3337,7 +3391,7 @@
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="B3" s="179"/>
       <c r="C3" s="180"/>
       <c r="D3" s="180"/>
@@ -3345,7 +3399,7 @@
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="B4" s="179"/>
       <c r="C4" s="180"/>
       <c r="D4" s="180"/>
@@ -3353,7 +3407,7 @@
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="B5" s="182"/>
       <c r="C5" s="183"/>
       <c r="D5" s="183"/>
@@ -3361,17 +3415,17 @@
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
     </row>
-    <row r="7" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="17" thickBot="1">
       <c r="D7" s="36"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="B8" s="37"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -3382,7 +3436,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="26" customFormat="1">
       <c r="B9" s="24"/>
       <c r="C9" s="16" t="s">
         <v>19</v>
@@ -3403,7 +3457,7 @@
       </c>
       <c r="J9" s="91"/>
     </row>
-    <row r="10" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="26" customFormat="1">
       <c r="B10" s="25"/>
       <c r="C10" s="13"/>
       <c r="D10" s="33"/>
@@ -3414,7 +3468,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:11" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="26" customFormat="1" ht="17" thickBot="1">
       <c r="B11" s="25"/>
       <c r="C11" s="13" t="s">
         <v>44</v>
@@ -3427,7 +3481,7 @@
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="17" thickBot="1">
       <c r="A12" s="26"/>
       <c r="B12" s="25"/>
       <c r="C12" s="164" t="s">
@@ -3449,7 +3503,7 @@
       <c r="J12" s="14"/>
       <c r="K12" s="26"/>
     </row>
-    <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="17" thickBot="1">
       <c r="A13" s="26"/>
       <c r="B13" s="25"/>
       <c r="C13" s="175" t="s">
@@ -3473,7 +3527,7 @@
       <c r="J13" s="14"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="17" thickBot="1">
       <c r="A14" s="109"/>
       <c r="B14" s="110"/>
       <c r="C14" s="155" t="s">
@@ -3497,7 +3551,7 @@
       <c r="J14" s="112"/>
       <c r="K14" s="36"/>
     </row>
-    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="17" thickBot="1">
       <c r="A15" s="109"/>
       <c r="B15" s="110"/>
       <c r="C15" s="139" t="s">
@@ -3517,7 +3571,7 @@
       <c r="J15" s="112"/>
       <c r="K15" s="36"/>
     </row>
-    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="17" thickBot="1">
       <c r="B16" s="110"/>
       <c r="C16" s="106" t="s">
         <v>57</v>
@@ -3537,7 +3591,7 @@
       </c>
       <c r="J16" s="112"/>
     </row>
-    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="17" thickBot="1">
       <c r="B17" s="110"/>
       <c r="C17" s="106" t="s">
         <v>58</v>
@@ -3556,7 +3610,7 @@
       </c>
       <c r="J17" s="112"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="B18" s="40"/>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
@@ -3567,7 +3621,7 @@
       <c r="I18" s="36"/>
       <c r="J18" s="92"/>
     </row>
-    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="17" thickBot="1">
       <c r="B19" s="40"/>
       <c r="C19" s="13" t="s">
         <v>43</v>
@@ -3580,7 +3634,7 @@
       <c r="I19" s="36"/>
       <c r="J19" s="92"/>
     </row>
-    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="17" thickBot="1">
       <c r="B20" s="40"/>
       <c r="C20" s="39" t="s">
         <v>22</v>
@@ -3602,7 +3656,7 @@
       </c>
       <c r="J20" s="92"/>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="B21" s="40"/>
       <c r="C21" s="39" t="s">
         <v>23</v>
@@ -3624,7 +3678,7 @@
       </c>
       <c r="J21" s="92"/>
     </row>
-    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="17" thickBot="1">
       <c r="B22" s="134"/>
       <c r="C22" s="141" t="s">
         <v>91</v>
@@ -3646,7 +3700,7 @@
       </c>
       <c r="J22" s="138"/>
     </row>
-    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="17" thickBot="1">
       <c r="B23" s="134"/>
       <c r="C23" s="141" t="s">
         <v>89</v>
@@ -3666,7 +3720,7 @@
       </c>
       <c r="J23" s="138"/>
     </row>
-    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="17" thickBot="1">
       <c r="B24" s="134"/>
       <c r="C24" s="141" t="s">
         <v>90</v>
@@ -3686,7 +3740,7 @@
       </c>
       <c r="J24" s="138"/>
     </row>
-    <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="17" thickBot="1">
       <c r="B25" s="134"/>
       <c r="C25" s="151" t="s">
         <v>101</v>
@@ -3706,7 +3760,7 @@
       </c>
       <c r="J25" s="138"/>
     </row>
-    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="17" thickBot="1">
       <c r="B26" s="134"/>
       <c r="C26" s="141" t="s">
         <v>92</v>
@@ -3726,7 +3780,7 @@
       </c>
       <c r="J26" s="138"/>
     </row>
-    <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="17" thickBot="1">
       <c r="A27" s="109"/>
       <c r="B27" s="110"/>
       <c r="C27" s="106" t="s">
@@ -3736,19 +3790,19 @@
         <v>63</v>
       </c>
       <c r="E27" s="113">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F27" s="106"/>
       <c r="G27" s="106" t="s">
         <v>64</v>
       </c>
       <c r="H27" s="106"/>
-      <c r="I27" s="174" t="s">
-        <v>124</v>
+      <c r="I27" s="185" t="s">
+        <v>142</v>
       </c>
       <c r="J27" s="112"/>
     </row>
-    <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="17" thickBot="1">
       <c r="A28" s="109"/>
       <c r="B28" s="110"/>
       <c r="C28" s="106" t="s">
@@ -3768,7 +3822,7 @@
       </c>
       <c r="J28" s="112"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="109"/>
       <c r="B29" s="110"/>
       <c r="C29" s="106"/>
@@ -3780,7 +3834,7 @@
       <c r="I29" s="114"/>
       <c r="J29" s="112"/>
     </row>
-    <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="17" thickBot="1">
       <c r="A30" s="109"/>
       <c r="B30" s="110"/>
       <c r="C30" s="13" t="s">
@@ -3793,7 +3847,7 @@
       <c r="I30" s="114"/>
       <c r="J30" s="112"/>
     </row>
-    <row r="31" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="17" thickBot="1">
       <c r="A31" s="109"/>
       <c r="B31" s="110"/>
       <c r="C31" s="106" t="s">
@@ -3816,7 +3870,7 @@
       </c>
       <c r="J31" s="112"/>
     </row>
-    <row r="32" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="17" thickBot="1">
       <c r="A32" s="109"/>
       <c r="B32" s="110"/>
       <c r="C32" s="106" t="s">
@@ -3837,7 +3891,7 @@
       <c r="I32" s="108"/>
       <c r="J32" s="112"/>
     </row>
-    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="17" thickBot="1">
       <c r="A33" s="109"/>
       <c r="B33" s="110"/>
       <c r="C33" s="106" t="s">
@@ -3858,7 +3912,7 @@
       <c r="I33" s="108"/>
       <c r="J33" s="112"/>
     </row>
-    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="17" thickBot="1">
       <c r="A34" s="109"/>
       <c r="B34" s="110"/>
       <c r="C34" s="106" t="s">
@@ -3878,7 +3932,7 @@
       </c>
       <c r="J34" s="112"/>
     </row>
-    <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="17" thickBot="1">
       <c r="A35" s="109"/>
       <c r="B35" s="117"/>
       <c r="C35" s="118"/>
@@ -3890,7 +3944,7 @@
       <c r="I35" s="118"/>
       <c r="J35" s="119"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="109"/>
       <c r="B36" s="109"/>
       <c r="C36" s="109"/>
@@ -3902,7 +3956,7 @@
       <c r="I36" s="109"/>
       <c r="J36" s="109"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="109"/>
       <c r="B37" s="109"/>
       <c r="C37" s="109"/>
@@ -3914,7 +3968,7 @@
       <c r="I37" s="109"/>
       <c r="J37" s="109"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="109"/>
       <c r="B38" s="109"/>
       <c r="C38" s="109"/>
@@ -3926,7 +3980,7 @@
       <c r="I38" s="109"/>
       <c r="J38" s="109"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="109"/>
       <c r="B39" s="109"/>
       <c r="E39" s="109"/>
@@ -3936,7 +3990,7 @@
       <c r="I39" s="109"/>
       <c r="J39" s="109"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" s="109"/>
       <c r="B40" s="109"/>
       <c r="C40" s="109"/>
@@ -3948,7 +4002,7 @@
       <c r="I40" s="109"/>
       <c r="J40" s="109"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" s="109"/>
       <c r="B41" s="109"/>
       <c r="C41" s="109"/>
@@ -3960,7 +4014,7 @@
       <c r="I41" s="109"/>
       <c r="J41" s="109"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" s="109"/>
       <c r="B42" s="109"/>
       <c r="C42" s="109"/>
@@ -3972,7 +4026,7 @@
       <c r="I42" s="109"/>
       <c r="J42" s="109"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" s="109"/>
       <c r="B43" s="109"/>
       <c r="C43" s="109"/>
@@ -3984,10 +4038,10 @@
       <c r="I43" s="109"/>
       <c r="J43" s="109"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" s="109"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" s="109"/>
     </row>
   </sheetData>
@@ -4000,8 +4054,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A2:Q38"/>
@@ -4010,7 +4064,7 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="42" customWidth="1"/>
     <col min="2" max="2" width="3" style="42" customWidth="1"/>
@@ -4032,8 +4086,8 @@
     <col min="18" max="16384" width="10.7109375" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="17" thickBot="1"/>
+    <row r="3" spans="1:17">
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -4051,7 +4105,7 @@
       <c r="P3" s="44"/>
       <c r="Q3" s="44"/>
     </row>
-    <row r="4" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="26" customFormat="1">
       <c r="B4" s="25"/>
       <c r="C4" s="89" t="s">
         <v>19</v>
@@ -4078,7 +4132,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="18" customHeight="1">
       <c r="B5" s="45"/>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
@@ -4093,7 +4147,7 @@
       <c r="M5" s="47"/>
       <c r="N5" s="54"/>
     </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1">
       <c r="B6" s="45"/>
       <c r="C6" s="12" t="s">
         <v>44</v>
@@ -4110,7 +4164,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="52"/>
     </row>
-    <row r="7" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="17" thickBot="1">
       <c r="B7" s="45"/>
       <c r="C7" s="160" t="s">
         <v>105</v>
@@ -4133,7 +4187,7 @@
       <c r="M7" s="47"/>
       <c r="N7" s="105"/>
     </row>
-    <row r="8" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="17" thickBot="1">
       <c r="B8" s="45"/>
       <c r="C8" s="107" t="s">
         <v>54</v>
@@ -4158,7 +4212,7 @@
       <c r="M8" s="47"/>
       <c r="N8" s="52"/>
     </row>
-    <row r="9" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="17" thickBot="1">
       <c r="B9" s="45"/>
       <c r="C9" s="155" t="s">
         <v>102</v>
@@ -4182,7 +4236,7 @@
       <c r="M9" s="47"/>
       <c r="N9" s="105"/>
     </row>
-    <row r="10" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="17" thickBot="1">
       <c r="A10" s="109"/>
       <c r="B10" s="110"/>
       <c r="C10" s="106" t="s">
@@ -4208,7 +4262,7 @@
       <c r="N10" s="140"/>
       <c r="O10" s="109"/>
     </row>
-    <row r="11" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="17" thickBot="1">
       <c r="A11" s="109"/>
       <c r="B11" s="110"/>
       <c r="C11" s="139" t="s">
@@ -4235,7 +4289,7 @@
       </c>
       <c r="O11" s="109"/>
     </row>
-    <row r="12" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="17" thickBot="1">
       <c r="A12" s="109"/>
       <c r="B12" s="110"/>
       <c r="C12" s="106" t="s">
@@ -4254,7 +4308,7 @@
       <c r="N12" s="140"/>
       <c r="O12" s="109"/>
     </row>
-    <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="17" thickBot="1">
       <c r="A13" s="109"/>
       <c r="B13" s="110"/>
       <c r="C13" s="106" t="s">
@@ -4274,7 +4328,7 @@
       <c r="N13" s="140"/>
       <c r="O13" s="109"/>
     </row>
-    <row r="14" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="17" thickBot="1">
       <c r="A14" s="109"/>
       <c r="B14" s="110"/>
       <c r="C14" s="106" t="s">
@@ -4291,7 +4345,7 @@
       <c r="N14" s="140"/>
       <c r="O14" s="109"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="B15" s="45"/>
       <c r="H15" s="48"/>
       <c r="I15" s="106"/>
@@ -4301,7 +4355,7 @@
       <c r="M15" s="47"/>
       <c r="N15" s="140"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="109"/>
       <c r="B16" s="110"/>
       <c r="C16" s="34"/>
@@ -4314,7 +4368,7 @@
       <c r="M16" s="122"/>
       <c r="N16" s="54"/>
     </row>
-    <row r="17" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="17" thickBot="1">
       <c r="A17" s="109"/>
       <c r="B17" s="110"/>
       <c r="C17" s="12" t="s">
@@ -4329,7 +4383,7 @@
       <c r="M17" s="122"/>
       <c r="N17" s="105"/>
     </row>
-    <row r="18" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="17" thickBot="1">
       <c r="A18" s="109"/>
       <c r="B18" s="110"/>
       <c r="C18" s="125" t="s">
@@ -4352,7 +4406,7 @@
       <c r="K18" s="122"/>
       <c r="N18" s="105"/>
     </row>
-    <row r="19" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="17" thickBot="1">
       <c r="A19" s="109"/>
       <c r="B19" s="110"/>
       <c r="C19" s="125" t="s">
@@ -4375,7 +4429,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="17" thickBot="1">
       <c r="A20" s="109"/>
       <c r="B20" s="110"/>
       <c r="C20" s="125" t="s">
@@ -4398,7 +4452,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="17" thickBot="1">
       <c r="A21" s="109"/>
       <c r="B21" s="110"/>
       <c r="C21" s="125" t="s">
@@ -4418,7 +4472,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="17" thickBot="1">
       <c r="A22" s="109"/>
       <c r="B22" s="110"/>
       <c r="C22" s="125" t="s">
@@ -4438,7 +4492,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="17" thickBot="1">
       <c r="A23" s="144"/>
       <c r="B23" s="145"/>
       <c r="C23" s="143" t="s">
@@ -4464,7 +4518,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="17" thickBot="1">
       <c r="A24" s="144"/>
       <c r="B24" s="145"/>
       <c r="C24" s="143" t="s">
@@ -4490,7 +4544,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="17" thickBot="1">
       <c r="A25" s="109"/>
       <c r="B25" s="110"/>
       <c r="C25" s="143" t="s">
@@ -4512,7 +4566,7 @@
       <c r="M25" s="115"/>
       <c r="N25" s="130"/>
     </row>
-    <row r="26" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="17" thickBot="1">
       <c r="A26" s="144"/>
       <c r="B26" s="145"/>
       <c r="C26" s="149" t="s">
@@ -4538,20 +4592,20 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" s="144"/>
       <c r="B27" s="145"/>
       <c r="H27" s="48"/>
       <c r="J27" s="48"/>
       <c r="N27" s="52"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="B28" s="45"/>
       <c r="H28" s="48"/>
       <c r="J28" s="48"/>
       <c r="N28" s="105"/>
     </row>
-    <row r="29" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="17" thickBot="1">
       <c r="A29" s="109"/>
       <c r="B29" s="110"/>
       <c r="C29" s="34" t="s">
@@ -4566,7 +4620,7 @@
       <c r="M29" s="11"/>
       <c r="N29" s="140"/>
     </row>
-    <row r="30" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="17" thickBot="1">
       <c r="A30" s="109"/>
       <c r="B30" s="110"/>
       <c r="C30" s="124" t="s">
@@ -4589,7 +4643,7 @@
       <c r="M30" s="123"/>
       <c r="N30" s="140"/>
     </row>
-    <row r="31" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="17" thickBot="1">
       <c r="A31" s="109"/>
       <c r="B31" s="110"/>
       <c r="C31" s="107" t="s">
@@ -4608,7 +4662,7 @@
       <c r="M31" s="123"/>
       <c r="N31" s="140"/>
     </row>
-    <row r="32" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="17" thickBot="1">
       <c r="A32" s="109"/>
       <c r="B32" s="110"/>
       <c r="C32" s="120" t="s">
@@ -4627,7 +4681,7 @@
       <c r="M32" s="11"/>
       <c r="N32" s="130"/>
     </row>
-    <row r="33" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="17" thickBot="1">
       <c r="A33" s="109"/>
       <c r="B33" s="110"/>
       <c r="C33" s="102" t="s">
@@ -4640,7 +4694,7 @@
       <c r="J33" s="48"/>
       <c r="N33" s="105"/>
     </row>
-    <row r="34" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="17" thickBot="1">
       <c r="A34" s="109"/>
       <c r="B34" s="110"/>
       <c r="C34" s="106" t="s">
@@ -4650,7 +4704,7 @@
       <c r="J34" s="48"/>
       <c r="N34" s="140"/>
     </row>
-    <row r="35" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="17" thickBot="1">
       <c r="A35" s="109"/>
       <c r="B35" s="110"/>
       <c r="C35" s="106" t="s">
@@ -4660,7 +4714,7 @@
       <c r="J35" s="48"/>
       <c r="N35" s="140"/>
     </row>
-    <row r="36" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="17" thickBot="1">
       <c r="A36" s="109"/>
       <c r="B36" s="110"/>
       <c r="C36" s="106" t="s">
@@ -4670,7 +4724,7 @@
       <c r="J36" s="48"/>
       <c r="N36" s="140"/>
     </row>
-    <row r="37" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="17" thickBot="1">
       <c r="A37" s="109"/>
       <c r="B37" s="110"/>
       <c r="C37" s="106" t="s">
@@ -4680,7 +4734,7 @@
       <c r="J37" s="48"/>
       <c r="N37" s="140"/>
     </row>
-    <row r="38" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="17" thickBot="1">
       <c r="A38" s="109"/>
       <c r="B38" s="110"/>
       <c r="C38" s="106" t="s">
@@ -4697,8 +4751,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:J30"/>
@@ -4707,7 +4761,7 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="56" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" style="56" customWidth="1"/>
@@ -4721,8 +4775,8 @@
     <col min="11" max="16384" width="33.140625" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="17" thickBot="1"/>
+    <row r="2" spans="2:10">
       <c r="B2" s="57"/>
       <c r="C2" s="58"/>
       <c r="D2" s="58"/>
@@ -4733,7 +4787,7 @@
       <c r="I2" s="62"/>
       <c r="J2" s="58"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" s="59"/>
       <c r="C3" s="13" t="s">
         <v>15</v>
@@ -4746,7 +4800,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" s="59"/>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
@@ -4757,7 +4811,7 @@
       <c r="I4" s="63"/>
       <c r="J4" s="55"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="64"/>
       <c r="C5" s="15" t="s">
         <v>16</v>
@@ -4784,7 +4838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="59"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -4795,7 +4849,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="59"/>
       <c r="C7" s="157" t="s">
         <v>110</v>
@@ -4822,7 +4876,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10">
       <c r="B8" s="59"/>
       <c r="C8" s="156" t="s">
         <v>106</v>
@@ -4835,7 +4889,7 @@
       <c r="I8" s="55"/>
       <c r="J8" s="55"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" s="59"/>
       <c r="C9" s="109" t="s">
         <v>24</v>
@@ -4847,7 +4901,7 @@
       <c r="H9" s="101"/>
       <c r="I9" s="55"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10">
       <c r="B10" s="59"/>
       <c r="C10" s="128" t="s">
         <v>82</v>
@@ -4860,7 +4914,7 @@
       <c r="I10" s="98"/>
       <c r="J10" s="97"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10">
       <c r="B11" s="59"/>
       <c r="C11" s="129" t="s">
         <v>56</v>
@@ -4873,7 +4927,7 @@
       <c r="I11" s="55"/>
       <c r="J11" s="114"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10">
       <c r="B12" s="59"/>
       <c r="C12" s="128" t="s">
         <v>84</v>
@@ -4886,7 +4940,7 @@
       <c r="I12" s="55"/>
       <c r="J12" s="55"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10">
       <c r="B13" s="59"/>
       <c r="C13" s="129"/>
       <c r="D13" s="55"/>
@@ -4897,7 +4951,7 @@
       <c r="I13" s="55"/>
       <c r="J13" s="55"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10">
       <c r="B14" s="59"/>
       <c r="C14" s="109"/>
       <c r="D14" s="133"/>
@@ -4908,7 +4962,7 @@
       <c r="I14" s="114"/>
       <c r="J14" s="96"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10">
       <c r="B15" s="59"/>
       <c r="E15" s="104"/>
       <c r="F15" s="55"/>
@@ -4917,7 +4971,7 @@
       <c r="I15" s="114"/>
       <c r="J15" s="96"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10">
       <c r="B16" s="59"/>
       <c r="C16" s="157"/>
       <c r="D16" s="109"/>
@@ -4928,15 +4982,15 @@
       <c r="I16" s="114"/>
       <c r="J16" s="55"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10">
       <c r="B17" s="59"/>
       <c r="C17" s="156"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18" s="59"/>
       <c r="C18" s="109"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10">
       <c r="B19" s="59"/>
       <c r="C19" s="167"/>
       <c r="D19" s="170" t="s">
@@ -4958,7 +5012,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10">
       <c r="B20" s="59"/>
       <c r="C20" s="129"/>
       <c r="D20" s="55"/>
@@ -4969,7 +5023,7 @@
       <c r="I20" s="55"/>
       <c r="J20" s="55"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10">
       <c r="B21" s="59"/>
       <c r="C21" s="167" t="s">
         <v>115</v>
@@ -4996,7 +5050,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10">
       <c r="B22" s="59"/>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
@@ -5006,15 +5060,15 @@
       <c r="I22" s="55"/>
       <c r="J22" s="55"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10">
       <c r="H30" s="172"/>
     </row>
   </sheetData>
   <phoneticPr fontId="35" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J7" r:id="rId1"/>
-    <hyperlink ref="J21" r:id="rId2"/>
-    <hyperlink ref="J19" r:id="rId3"/>
+    <hyperlink ref="J7" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="J21" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="J19" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5022,8 +5076,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:O242"/>
@@ -5032,7 +5086,7 @@
       <selection activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="65" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" style="65" customWidth="1"/>
@@ -5047,8 +5101,8 @@
     <col min="17" max="16384" width="10.7109375" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="17" thickBot="1"/>
+    <row r="2" spans="1:15">
       <c r="B2" s="66"/>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
@@ -5063,7 +5117,7 @@
       <c r="M2" s="67"/>
       <c r="N2" s="68"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="69"/>
       <c r="B3" s="94"/>
       <c r="C3" s="73" t="s">
@@ -5085,7 +5139,7 @@
       <c r="M3" s="70"/>
       <c r="N3" s="95"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="B4" s="71"/>
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
@@ -5101,7 +5155,7 @@
       <c r="N4" s="72"/>
       <c r="O4" s="72"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="B5" s="71"/>
       <c r="D5" s="72"/>
       <c r="E5" s="72"/>
@@ -5116,7 +5170,7 @@
       <c r="N5" s="72"/>
       <c r="O5" s="72"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="B6" s="71"/>
       <c r="D6" s="72"/>
       <c r="G6" s="72"/>
@@ -5129,7 +5183,7 @@
       <c r="N6" s="72"/>
       <c r="O6" s="72"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="B7" s="71"/>
       <c r="D7" s="72"/>
       <c r="E7" s="72"/>
@@ -5144,7 +5198,7 @@
       <c r="N7" s="72"/>
       <c r="O7" s="72"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="B8" s="71"/>
       <c r="D8" s="72"/>
       <c r="E8" s="72"/>
@@ -5159,7 +5213,7 @@
       <c r="N8" s="72"/>
       <c r="O8" s="72"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="B9" s="71"/>
       <c r="C9" s="72"/>
       <c r="D9" s="72"/>
@@ -5175,7 +5229,7 @@
       <c r="N9" s="72"/>
       <c r="O9" s="72"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="B10" s="71"/>
       <c r="C10" s="72"/>
       <c r="D10" s="72"/>
@@ -5191,7 +5245,7 @@
       <c r="N10" s="72"/>
       <c r="O10" s="72"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="B11" s="71"/>
       <c r="C11" s="72"/>
       <c r="D11" s="72"/>
@@ -5207,7 +5261,7 @@
       <c r="N11" s="72"/>
       <c r="O11" s="72"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="B12" s="71"/>
       <c r="C12" s="72"/>
       <c r="D12" s="72"/>
@@ -5223,7 +5277,7 @@
       <c r="N12" s="72"/>
       <c r="O12" s="72"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="B13" s="71"/>
       <c r="C13" s="72"/>
       <c r="D13" s="72"/>
@@ -5239,7 +5293,7 @@
       <c r="N13" s="72"/>
       <c r="O13" s="72"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="B14" s="71"/>
       <c r="C14" s="72"/>
       <c r="D14" s="72"/>
@@ -5255,7 +5309,7 @@
       <c r="N14" s="72"/>
       <c r="O14" s="72"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="B15" s="71"/>
       <c r="E15" s="72"/>
       <c r="F15" s="72"/>
@@ -5269,7 +5323,7 @@
       <c r="N15" s="72"/>
       <c r="O15" s="72"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="B16" s="71"/>
       <c r="C16" s="72" t="s">
         <v>132</v>
@@ -5287,7 +5341,7 @@
       <c r="N16" s="72"/>
       <c r="O16" s="72"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15">
       <c r="B17" s="71"/>
       <c r="C17" s="72"/>
       <c r="D17" s="72"/>
@@ -5308,7 +5362,7 @@
       <c r="N17" s="72"/>
       <c r="O17" s="72"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15">
       <c r="B18" s="71"/>
       <c r="C18" s="72"/>
       <c r="D18" s="72"/>
@@ -5323,7 +5377,7 @@
       <c r="N18" s="72"/>
       <c r="O18" s="72"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15">
       <c r="B19" s="71"/>
       <c r="C19" s="72"/>
       <c r="D19" s="72"/>
@@ -5339,7 +5393,7 @@
       <c r="N19" s="72"/>
       <c r="O19" s="72"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15">
       <c r="B20" s="71"/>
       <c r="C20" s="72"/>
       <c r="D20" s="72"/>
@@ -5355,7 +5409,7 @@
       <c r="N20" s="72"/>
       <c r="O20" s="72"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15">
       <c r="B21" s="71"/>
       <c r="C21" s="72"/>
       <c r="D21" s="72"/>
@@ -5371,7 +5425,7 @@
       <c r="N21" s="72"/>
       <c r="O21" s="72"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15">
       <c r="B22" s="71"/>
       <c r="C22" s="72"/>
       <c r="D22" s="72"/>
@@ -5387,7 +5441,7 @@
       <c r="N22" s="72"/>
       <c r="O22" s="72"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15">
       <c r="B23" s="71"/>
       <c r="C23" s="72"/>
       <c r="D23" s="72"/>
@@ -5403,7 +5457,7 @@
       <c r="N23" s="72"/>
       <c r="O23" s="72"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15">
       <c r="B24" s="71"/>
       <c r="C24" s="72" t="s">
         <v>104</v>
@@ -5423,7 +5477,7 @@
       <c r="N24" s="72"/>
       <c r="O24" s="72"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15">
       <c r="B25" s="71"/>
       <c r="C25" s="72"/>
       <c r="D25" s="72"/>
@@ -5439,7 +5493,7 @@
       <c r="N25" s="72"/>
       <c r="O25" s="72"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15">
       <c r="B26" s="71"/>
       <c r="C26" s="72"/>
       <c r="D26" s="72"/>
@@ -5455,7 +5509,7 @@
       <c r="N26" s="72"/>
       <c r="O26" s="72"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15">
       <c r="B27" s="71"/>
       <c r="C27" s="72"/>
       <c r="D27" s="72"/>
@@ -5471,7 +5525,7 @@
       <c r="N27" s="72"/>
       <c r="O27" s="72"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15">
       <c r="B28" s="71"/>
       <c r="C28" s="72"/>
       <c r="D28" s="72"/>
@@ -5487,7 +5541,7 @@
       <c r="N28" s="72"/>
       <c r="O28" s="72"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15">
       <c r="B29" s="71"/>
       <c r="C29" s="72"/>
       <c r="D29" s="72"/>
@@ -5503,7 +5557,7 @@
       <c r="N29" s="72"/>
       <c r="O29" s="72"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15">
       <c r="B30" s="71"/>
       <c r="C30" s="72"/>
       <c r="D30" s="72"/>
@@ -5526,7 +5580,7 @@
       <c r="N30" s="72"/>
       <c r="O30" s="72"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15">
       <c r="B31" s="71"/>
       <c r="C31" s="72"/>
       <c r="D31" s="72"/>
@@ -5542,7 +5596,7 @@
       <c r="N31" s="72"/>
       <c r="O31" s="72"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15">
       <c r="B32" s="71"/>
       <c r="C32" s="72"/>
       <c r="D32" s="72"/>
@@ -5558,7 +5612,7 @@
       <c r="N32" s="72"/>
       <c r="O32" s="72"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15">
       <c r="B33" s="71"/>
       <c r="C33" s="72"/>
       <c r="E33" s="72"/>
@@ -5573,7 +5627,7 @@
       <c r="N33" s="72"/>
       <c r="O33" s="72"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15">
       <c r="B34" s="71"/>
       <c r="E34" s="72"/>
       <c r="H34" s="72"/>
@@ -5585,7 +5639,7 @@
       <c r="N34" s="72"/>
       <c r="O34" s="72"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15">
       <c r="B35" s="71"/>
       <c r="C35" s="72"/>
       <c r="D35" s="72"/>
@@ -5601,7 +5655,7 @@
       <c r="N35" s="72"/>
       <c r="O35" s="72"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15">
       <c r="B36" s="71"/>
       <c r="C36" s="72"/>
       <c r="D36" s="72"/>
@@ -5617,7 +5671,7 @@
       <c r="N36" s="72"/>
       <c r="O36" s="72"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15">
       <c r="B37" s="71"/>
       <c r="C37" s="72"/>
       <c r="D37" s="72"/>
@@ -5633,7 +5687,7 @@
       <c r="N37" s="72"/>
       <c r="O37" s="72"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15">
       <c r="B38" s="71"/>
       <c r="C38" s="72"/>
       <c r="D38" s="72"/>
@@ -5647,7 +5701,7 @@
       <c r="N38" s="72"/>
       <c r="O38" s="72"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15">
       <c r="B39" s="71"/>
       <c r="C39" s="72"/>
       <c r="D39" s="72"/>
@@ -5667,7 +5721,7 @@
       <c r="N39" s="72"/>
       <c r="O39" s="72"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15">
       <c r="B40" s="71"/>
       <c r="C40" s="72"/>
       <c r="D40" s="72"/>
@@ -5683,7 +5737,7 @@
       <c r="N40" s="72"/>
       <c r="O40" s="72"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15">
       <c r="B41" s="71"/>
       <c r="C41" s="72"/>
       <c r="D41" s="72"/>
@@ -5699,7 +5753,7 @@
       <c r="N41" s="72"/>
       <c r="O41" s="72"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15">
       <c r="B42" s="71"/>
       <c r="C42" s="72"/>
       <c r="K42" s="72"/>
@@ -5708,7 +5762,7 @@
       <c r="N42" s="72"/>
       <c r="O42" s="72"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15">
       <c r="B43" s="71"/>
       <c r="C43" s="72"/>
       <c r="K43" s="72"/>
@@ -5717,7 +5771,7 @@
       <c r="N43" s="72"/>
       <c r="O43" s="72"/>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15">
       <c r="B44" s="71"/>
       <c r="C44" s="72"/>
       <c r="K44" s="72"/>
@@ -5726,7 +5780,7 @@
       <c r="N44" s="72"/>
       <c r="O44" s="72"/>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15">
       <c r="B45" s="71"/>
       <c r="C45" s="72"/>
       <c r="K45" s="72"/>
@@ -5735,7 +5789,7 @@
       <c r="N45" s="72"/>
       <c r="O45" s="72"/>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15">
       <c r="B46" s="71"/>
       <c r="C46" s="72"/>
       <c r="E46" s="100"/>
@@ -5746,7 +5800,7 @@
       <c r="N46" s="72"/>
       <c r="O46" s="72"/>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15">
       <c r="B47" s="71"/>
       <c r="C47" s="72"/>
       <c r="E47" s="72"/>
@@ -5757,7 +5811,7 @@
       <c r="N47" s="72"/>
       <c r="O47" s="72"/>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15">
       <c r="B48" s="71"/>
       <c r="C48" s="72"/>
       <c r="E48" s="65">
@@ -5772,7 +5826,7 @@
       <c r="N48" s="72"/>
       <c r="O48" s="72"/>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:15">
       <c r="B49" s="71"/>
       <c r="C49" s="72"/>
       <c r="E49" s="65">
@@ -5791,7 +5845,7 @@
       <c r="N49" s="72"/>
       <c r="O49" s="72"/>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:15">
       <c r="B50" s="71"/>
       <c r="C50" s="72"/>
       <c r="J50"/>
@@ -5801,7 +5855,7 @@
       <c r="N50" s="72"/>
       <c r="O50" s="72"/>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:15">
       <c r="B51" s="71"/>
       <c r="D51" s="72"/>
       <c r="K51" s="72"/>
@@ -5810,7 +5864,7 @@
       <c r="N51" s="72"/>
       <c r="O51" s="72"/>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:15">
       <c r="B52" s="71"/>
       <c r="C52" s="72"/>
       <c r="D52" s="72"/>
@@ -5826,7 +5880,7 @@
       <c r="N52" s="72"/>
       <c r="O52" s="72"/>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:15">
       <c r="B53" s="71"/>
       <c r="C53" s="72"/>
       <c r="D53" s="72"/>
@@ -5846,7 +5900,7 @@
       <c r="N53" s="72"/>
       <c r="O53" s="72"/>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:15">
       <c r="B54" s="71"/>
       <c r="C54" s="72"/>
       <c r="D54" s="72"/>
@@ -5862,7 +5916,7 @@
       <c r="N54" s="72"/>
       <c r="O54" s="72"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:15">
       <c r="B55" s="71"/>
       <c r="C55" s="72"/>
       <c r="D55" s="72"/>
@@ -5882,7 +5936,7 @@
       <c r="N55" s="72"/>
       <c r="O55" s="72"/>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:15">
       <c r="B56" s="71"/>
       <c r="C56" s="72"/>
       <c r="K56" s="72"/>
@@ -5891,7 +5945,7 @@
       <c r="N56" s="72"/>
       <c r="O56" s="72"/>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:15">
       <c r="B57" s="71"/>
       <c r="C57" s="72"/>
       <c r="E57" s="65">
@@ -5909,7 +5963,7 @@
       <c r="N57" s="72"/>
       <c r="O57" s="72"/>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:15">
       <c r="B58" s="71"/>
       <c r="C58" s="72"/>
       <c r="K58" s="72"/>
@@ -5918,7 +5972,7 @@
       <c r="N58" s="72"/>
       <c r="O58" s="72"/>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:15">
       <c r="B59" s="71"/>
       <c r="C59" s="72"/>
       <c r="K59" s="72"/>
@@ -5927,7 +5981,7 @@
       <c r="N59" s="72"/>
       <c r="O59" s="72"/>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:15">
       <c r="B60" s="71"/>
       <c r="C60" s="72"/>
       <c r="K60" s="72"/>
@@ -5936,7 +5990,7 @@
       <c r="N60" s="72"/>
       <c r="O60" s="72"/>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:15">
       <c r="B61" s="71"/>
       <c r="C61" s="72"/>
       <c r="K61" s="72"/>
@@ -5945,7 +5999,7 @@
       <c r="N61" s="72"/>
       <c r="O61" s="72"/>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:15">
       <c r="B62" s="71"/>
       <c r="C62" s="72"/>
       <c r="K62" s="72"/>
@@ -5954,7 +6008,7 @@
       <c r="N62" s="72"/>
       <c r="O62" s="72"/>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:15">
       <c r="B63" s="71"/>
       <c r="C63" s="72"/>
       <c r="K63" s="72"/>
@@ -5963,7 +6017,7 @@
       <c r="N63" s="72"/>
       <c r="O63" s="72"/>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:15">
       <c r="B64" s="71"/>
       <c r="C64" s="72"/>
       <c r="K64" s="72"/>
@@ -5972,7 +6026,7 @@
       <c r="N64" s="72"/>
       <c r="O64" s="72"/>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:15">
       <c r="B65" s="71"/>
       <c r="C65" s="72"/>
       <c r="K65" s="72"/>
@@ -5981,7 +6035,7 @@
       <c r="N65" s="72"/>
       <c r="O65" s="72"/>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:15">
       <c r="B66" s="71"/>
       <c r="C66" s="72"/>
       <c r="K66" s="72"/>
@@ -5990,7 +6044,7 @@
       <c r="N66" s="72"/>
       <c r="O66" s="72"/>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15">
       <c r="B67" s="71"/>
       <c r="C67" s="72"/>
       <c r="K67" s="72"/>
@@ -5999,7 +6053,7 @@
       <c r="N67" s="72"/>
       <c r="O67" s="72"/>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:15">
       <c r="B68" s="71"/>
       <c r="C68" s="72"/>
       <c r="K68" s="72"/>
@@ -6008,7 +6062,7 @@
       <c r="N68" s="72"/>
       <c r="O68" s="72"/>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:15">
       <c r="B69" s="71"/>
       <c r="C69" s="72"/>
       <c r="K69" s="72"/>
@@ -6017,7 +6071,7 @@
       <c r="N69" s="72"/>
       <c r="O69" s="72"/>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:15">
       <c r="B70" s="71"/>
       <c r="C70" s="72"/>
       <c r="K70" s="72"/>
@@ -6026,22 +6080,22 @@
       <c r="N70" s="72"/>
       <c r="O70" s="72"/>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:15">
       <c r="B71" s="71"/>
       <c r="N71" s="72"/>
       <c r="O71" s="72"/>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:15">
       <c r="B72" s="71"/>
       <c r="N72" s="72"/>
       <c r="O72" s="72"/>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15">
       <c r="B73" s="71"/>
       <c r="N73" s="72"/>
       <c r="O73" s="72"/>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:15">
       <c r="B74" s="71"/>
       <c r="C74" s="170" t="s">
         <v>119</v>
@@ -6049,26 +6103,26 @@
       <c r="N74" s="72"/>
       <c r="O74" s="72"/>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:15">
       <c r="B75" s="71"/>
       <c r="C75" s="72"/>
       <c r="D75" s="72"/>
       <c r="N75" s="72"/>
       <c r="O75" s="72"/>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:15">
       <c r="B76" s="71"/>
       <c r="C76" s="72"/>
       <c r="N76" s="72"/>
       <c r="O76" s="72"/>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15">
       <c r="B77" s="71"/>
       <c r="E77" s="153"/>
       <c r="N77" s="72"/>
       <c r="O77" s="72"/>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:15">
       <c r="B78" s="71"/>
       <c r="E78" s="65">
         <v>50</v>
@@ -6082,208 +6136,208 @@
       <c r="N78" s="72"/>
       <c r="O78" s="72"/>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:15">
       <c r="B79" s="71"/>
       <c r="N79" s="72"/>
       <c r="O79" s="72"/>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15">
       <c r="B80" s="71"/>
       <c r="F80" s="131"/>
       <c r="N80" s="72"/>
       <c r="O80" s="72"/>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:15">
       <c r="B81" s="71"/>
       <c r="N81" s="72"/>
       <c r="O81" s="72"/>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:15">
       <c r="B82" s="71"/>
       <c r="N82" s="72"/>
       <c r="O82" s="72"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:15">
       <c r="B83" s="71"/>
       <c r="N83" s="72"/>
       <c r="O83" s="72"/>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:15">
       <c r="B84" s="71"/>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:15">
       <c r="B85" s="71"/>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:15">
       <c r="B86" s="71"/>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:15">
       <c r="B87" s="71"/>
       <c r="C87" s="72"/>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:15">
       <c r="B88" s="71"/>
       <c r="C88" s="72"/>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:15">
       <c r="B89" s="71"/>
       <c r="C89" s="72"/>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:15">
       <c r="B90" s="71"/>
       <c r="C90" s="72"/>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:15">
       <c r="B91" s="71"/>
       <c r="C91" s="72"/>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:15">
       <c r="B92" s="71"/>
       <c r="C92" s="72"/>
       <c r="E92" s="132"/>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:15">
       <c r="B93" s="71"/>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:15">
       <c r="B94" s="71"/>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:15">
       <c r="B95" s="71"/>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:15">
       <c r="B96" s="71"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:2">
       <c r="B97" s="71"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:2">
       <c r="B98" s="71"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:2">
       <c r="B99" s="71"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:2">
       <c r="B100" s="71"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:2">
       <c r="B101" s="71"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:2">
       <c r="B102" s="71"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:2">
       <c r="B103" s="71"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:2">
       <c r="B104" s="71"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:2">
       <c r="B105" s="71"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:2">
       <c r="B106" s="71"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:2">
       <c r="B107" s="71"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:2">
       <c r="B108" s="71"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:2">
       <c r="B109" s="71"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:2">
       <c r="B110" s="71"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:2">
       <c r="B111" s="71"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:2">
       <c r="B112" s="71"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:2">
       <c r="B113" s="71"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:2">
       <c r="B114" s="71"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:2">
       <c r="B115" s="71"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:2">
       <c r="B116" s="71"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:2">
       <c r="B117" s="71"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:2">
       <c r="B118" s="71"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:2">
       <c r="B119" s="71"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:2">
       <c r="B120" s="71"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:2">
       <c r="B121" s="71"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:2">
       <c r="B122" s="71"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:2">
       <c r="B123" s="71"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:2">
       <c r="B124" s="71"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:2">
       <c r="B125" s="71"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:2">
       <c r="B126" s="71"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:2">
       <c r="B127" s="71"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:2">
       <c r="B128" s="71"/>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:4">
       <c r="B129" s="71"/>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:4">
       <c r="B130" s="71"/>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:4">
       <c r="B131" s="71"/>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:4">
       <c r="B132" s="71"/>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:4">
       <c r="B133" s="71"/>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:4">
       <c r="B134" s="71"/>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:4">
       <c r="B135" s="71"/>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:4">
       <c r="B136" s="71"/>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:4">
       <c r="B137" s="71"/>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:4">
       <c r="B138" s="71"/>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:4">
       <c r="B139" s="71"/>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:4">
       <c r="B140" s="71"/>
       <c r="C140" s="65" t="s">
         <v>116</v>
@@ -6292,416 +6346,416 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:4">
       <c r="B141" s="71"/>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:4">
       <c r="B142" s="71"/>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:4">
       <c r="B143" s="71"/>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:4">
       <c r="B144" s="71"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2">
       <c r="A145" s="152"/>
       <c r="B145" s="154"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2">
       <c r="A146" s="152"/>
       <c r="B146" s="154"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2">
       <c r="A147" s="152"/>
       <c r="B147" s="154"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2">
       <c r="A148" s="152"/>
       <c r="B148" s="154"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2">
       <c r="A149" s="152"/>
       <c r="B149" s="154"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2">
       <c r="A150" s="152"/>
       <c r="B150" s="154"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2">
       <c r="A151" s="152"/>
       <c r="B151" s="154"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2">
       <c r="A152" s="152"/>
       <c r="B152" s="154"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2">
       <c r="A153" s="152"/>
       <c r="B153" s="154"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2">
       <c r="A154" s="152"/>
       <c r="B154" s="154"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2">
       <c r="A155" s="152"/>
       <c r="B155" s="154"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2">
       <c r="A156" s="152"/>
       <c r="B156" s="154"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2">
       <c r="A157" s="152"/>
       <c r="B157" s="154"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2">
       <c r="A158" s="152"/>
       <c r="B158" s="154"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2">
       <c r="A159" s="152"/>
       <c r="B159" s="154"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2">
       <c r="A160" s="152"/>
       <c r="B160" s="154"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5">
       <c r="A161" s="152"/>
       <c r="B161" s="154"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5">
       <c r="A162" s="152"/>
       <c r="B162" s="154"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5">
       <c r="A163" s="152"/>
       <c r="B163" s="154"/>
       <c r="E163" s="65" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5">
       <c r="A164" s="152"/>
       <c r="B164" s="154"/>
       <c r="E164" s="65" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5">
       <c r="A165" s="152"/>
       <c r="B165" s="154"/>
       <c r="E165" s="65" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5">
       <c r="A166" s="152"/>
       <c r="B166" s="154"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5">
       <c r="A167" s="152"/>
       <c r="B167" s="154"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5">
       <c r="A168" s="152"/>
       <c r="B168" s="154"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5">
       <c r="A169" s="152"/>
       <c r="B169" s="154"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5">
       <c r="A170" s="152"/>
       <c r="B170" s="154"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5">
       <c r="A171" s="152"/>
       <c r="B171" s="154"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5">
       <c r="A172" s="152"/>
       <c r="B172" s="154"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5">
       <c r="A173" s="152"/>
       <c r="B173" s="154"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5">
       <c r="A174" s="152"/>
       <c r="B174" s="154"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5">
       <c r="A175" s="152"/>
       <c r="B175" s="154"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5">
       <c r="A176" s="152"/>
       <c r="B176" s="154"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2">
       <c r="A177" s="152"/>
       <c r="B177" s="154"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2">
       <c r="A178" s="152"/>
       <c r="B178" s="154"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2">
       <c r="A179" s="152"/>
       <c r="B179" s="154"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2">
       <c r="A180" s="152"/>
       <c r="B180" s="154"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2">
       <c r="A181" s="152"/>
       <c r="B181" s="154"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2">
       <c r="A182" s="152"/>
       <c r="B182" s="154"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2">
       <c r="A183" s="152"/>
       <c r="B183" s="154"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2">
       <c r="A184" s="152"/>
       <c r="B184" s="154"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2">
       <c r="A185" s="152"/>
       <c r="B185" s="154"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2">
       <c r="A186" s="152"/>
       <c r="B186" s="154"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2">
       <c r="A187" s="152"/>
       <c r="B187" s="154"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2">
       <c r="A188" s="152"/>
       <c r="B188" s="154"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2">
       <c r="A189" s="152"/>
       <c r="B189" s="154"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2">
       <c r="A190" s="152"/>
       <c r="B190" s="154"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2">
       <c r="A191" s="152"/>
       <c r="B191" s="154"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2">
       <c r="A192" s="152"/>
       <c r="B192" s="154"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2">
       <c r="A193" s="152"/>
       <c r="B193" s="154"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2">
       <c r="A194" s="152"/>
       <c r="B194" s="154"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2">
       <c r="A195" s="152"/>
       <c r="B195" s="154"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2">
       <c r="A196" s="152"/>
       <c r="B196" s="154"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2">
       <c r="A197" s="152"/>
       <c r="B197" s="154"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2">
       <c r="A198" s="152"/>
       <c r="B198" s="154"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2">
       <c r="A199" s="152"/>
       <c r="B199" s="154"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2">
       <c r="A200" s="152"/>
       <c r="B200" s="154"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2">
       <c r="A201" s="152"/>
       <c r="B201" s="154"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2">
       <c r="A202" s="152"/>
       <c r="B202" s="154"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2">
       <c r="A203" s="152"/>
       <c r="B203" s="154"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2">
       <c r="A204" s="152"/>
       <c r="B204" s="154"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2">
       <c r="A205" s="152"/>
       <c r="B205" s="154"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2">
       <c r="A206" s="152"/>
       <c r="B206" s="154"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2">
       <c r="A207" s="152"/>
       <c r="B207" s="154"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2">
       <c r="A208" s="152"/>
       <c r="B208" s="154"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2">
       <c r="A209" s="152"/>
       <c r="B209" s="154"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2">
       <c r="A210" s="152"/>
       <c r="B210" s="154"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2">
       <c r="A211" s="152"/>
       <c r="B211" s="154"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2">
       <c r="A212" s="152"/>
       <c r="B212" s="154"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2">
       <c r="A213" s="152"/>
       <c r="B213" s="154"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2">
       <c r="A214" s="152"/>
       <c r="B214" s="154"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2">
       <c r="A215" s="152"/>
       <c r="B215" s="154"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2">
       <c r="A216" s="152"/>
       <c r="B216" s="154"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2">
       <c r="A217" s="152"/>
       <c r="B217" s="154"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2">
       <c r="A218" s="152"/>
       <c r="B218" s="154"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2">
       <c r="A219" s="152"/>
       <c r="B219" s="154"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2">
       <c r="A220" s="152"/>
       <c r="B220" s="154"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2">
       <c r="A221" s="152"/>
       <c r="B221" s="154"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2">
       <c r="A222" s="152"/>
       <c r="B222" s="154"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2">
       <c r="A223" s="152"/>
       <c r="B223" s="154"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2">
       <c r="A224" s="152"/>
       <c r="B224" s="154"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2">
       <c r="A225" s="152"/>
       <c r="B225" s="154"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2">
       <c r="A226" s="152"/>
       <c r="B226" s="154"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2">
       <c r="A227" s="152"/>
       <c r="B227" s="154"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2">
       <c r="A228" s="152"/>
       <c r="B228" s="154"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2">
       <c r="A229" s="152"/>
       <c r="B229" s="154"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2">
       <c r="A230" s="152"/>
       <c r="B230" s="154"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2">
       <c r="A231" s="152"/>
       <c r="B231" s="154"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2">
       <c r="A232" s="152"/>
       <c r="B232" s="154"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2">
       <c r="A233" s="152"/>
       <c r="B233" s="154"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2">
       <c r="A234" s="152"/>
       <c r="B234" s="154"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2">
       <c r="A235" s="152"/>
       <c r="B235" s="154"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2">
       <c r="A236" s="152"/>
       <c r="B236" s="154"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2">
       <c r="A237" s="152"/>
       <c r="B237" s="154"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2">
       <c r="A238" s="152"/>
       <c r="B238" s="154"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2">
       <c r="A239" s="152"/>
       <c r="B239" s="154"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2">
       <c r="A240" s="152"/>
       <c r="B240" s="154"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2">
       <c r="A241" s="152"/>
       <c r="B241" s="154"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2">
       <c r="A242" s="152"/>
       <c r="B242" s="154"/>
     </row>
